--- a/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="602">
   <si>
     <t xml:space="preserve">Metrics &amp; Description</t>
   </si>
@@ -729,25 +729,7 @@
     <t xml:space="preserve">yes, optimization mentioned in User Guide</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, parallelism among other things described in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/aharwood2/LUMA/wiki/Performance</t>
-    </r>
+    <t xml:space="preserve">yes, parallelism among other things described in https://github.com/aharwood2/LUMA/wiki/Performance</t>
   </si>
   <si>
     <t xml:space="preserve">yes, parallel build available</t>
@@ -864,25 +846,7 @@
     <t xml:space="preserve">yes, tutorial package</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, installation has a command to run the program; there is also </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/aharwood2/LUMA/wiki/Validation</t>
-    </r>
+    <t xml:space="preserve">yes, installation has a command to run the program; there is also https://github.com/aharwood2/LUMA/wiki/Validation</t>
   </si>
   <si>
     <t xml:space="preserve">yes, there is a make test that can be run after the installation</t>
@@ -1056,67 +1020,13 @@
     <t xml:space="preserve">({yes∗ , no, unclear})</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, some theory in publications and documentations on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://walberla.net/index.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://sunlightlb.sourceforge.net/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://sailfish.us.edu.pl/media.html#academic-papers</t>
-    </r>
+    <t xml:space="preserve">yes, some theory in publications and documentations on https://walberla.net/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, http://sunlightlb.sourceforge.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, http://sailfish.us.edu.pl/media.html#academic-papers</t>
   </si>
   <si>
     <t xml:space="preserve">yes, in the user guide</t>
@@ -1125,25 +1035,7 @@
     <t xml:space="preserve">yes, some theory in user guide</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, link to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/aharwood2/LUMA/wiki</t>
-    </r>
+    <t xml:space="preserve">yes, link to https://github.com/aharwood2/LUMA/wiki</t>
   </si>
   <si>
     <t xml:space="preserve">yes, reference document https://github.com/ludwig-cf/ludwig/blob/master/docs/references.tex</t>
@@ -1424,25 +1316,7 @@
     <t xml:space="preserve">Are expected user characteristics documented?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://palabos.unige.ch/</t>
-    </r>
+    <t xml:space="preserve">yes, in https://palabos.unige.ch/</t>
   </si>
   <si>
     <t xml:space="preserve">What is the user support model? FAQ? User forum? E-mail address to direct questions? Etc.</t>
@@ -1535,67 +1409,13 @@
     <t xml:space="preserve">Is there any information on how code is reviewed, or how to contribute?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://i10git.cs.fau.de/walberla/walberla</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://sailfish.us.edu.pl/about.html#development-team</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://gitlab.com/unigespc/palabos/blob/master/CONTRIBUTING.md</t>
-    </r>
+    <t xml:space="preserve">yes, https://i10git.cs.fau.de/walberla/walberla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, http://sailfish.us.edu.pl/about.html#development-team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, https://gitlab.com/unigespc/palabos/blob/master/CONTRIBUTING.md</t>
   </si>
   <si>
     <t xml:space="preserve">yes, developer guide</t>
@@ -1790,25 +1610,7 @@
     <t xml:space="preserve">({yes∗, no, n/a})</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/aharwood2/LUMA/blob/master/LUMA/docs/LUMA%20Coding%20Standards.pdf</t>
-    </r>
+    <t xml:space="preserve">yes, https://github.com/aharwood2/LUMA/blob/master/LUMA/docs/LUMA%20Coding%20Standards.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">yes, found in hemelbCodingStandard.txt</t>
@@ -1874,25 +1676,7 @@
     <t xml:space="preserve">Are there any documents recording the development process and status? </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://gitlab.com/unigespc/palabos/-/blob/master/CONTRIBUTING.md</t>
-    </r>
+    <t xml:space="preserve">yes, https://gitlab.com/unigespc/palabos/-/blob/master/CONTRIBUTING.md</t>
   </si>
   <si>
     <t xml:space="preserve">yes, in https://github.com/ludwig-cf/ludwig/blob/master/CONTRIBUTING.md</t>
@@ -1937,94 +1721,19 @@
     <t xml:space="preserve">Are there release notes? </t>
   </si>
   <si>
-    <t xml:space="preserve">yes, https://i10git.cs.fau.de/walberla/walberla</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://sailfish.us.edu.pl/release.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://gitlab.com/unigespc/palabos/-/blob/master/CHANGELOG.md</t>
-    </r>
+    <t xml:space="preserve">yes, http://sailfish.us.edu.pl/release.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, https://gitlab.com/unigespc/palabos/-/blob/master/CHANGELOG.md</t>
   </si>
   <si>
     <t xml:space="preserve">yes, in downloads page</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/carlosrosales/mplabs/blob/master/CHANGES.TXT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yes, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/aharwood2/LUMA/wiki/Release-Notes</t>
-    </r>
+    <t xml:space="preserve">yes, https://github.com/carlosrosales/mplabs/blob/master/CHANGES.TXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, https://github.com/aharwood2/LUMA/wiki/Release-Notes</t>
   </si>
   <si>
     <t xml:space="preserve">yes, README is updates alongside releases</t>
@@ -2211,7 +1920,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2242,11 +1951,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2257,6 +1961,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2328,7 +2033,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2365,15 +2070,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2395,6 +2096,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2432,13 +2149,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="V91" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+      <selection pane="topRight" activeCell="W102" activeCellId="0" sqref="W102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
@@ -2580,19 +2297,19 @@
       <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -2607,7 +2324,7 @@
       <c r="O4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
@@ -2616,19 +2333,19 @@
       <c r="R4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="X4" s="7" t="s">
@@ -2648,7 +2365,7 @@
       <c r="D5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2725,7 +2442,7 @@
       <c r="E6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -3012,40 +2729,40 @@
       <c r="B10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="11" t="n">
         <v>39661</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="11" t="n">
         <v>38597</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="11" t="n">
         <v>41196</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="11" t="n">
         <v>39280</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="11" t="n">
         <v>39614</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="11" t="n">
         <v>39607</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="11" t="n">
         <v>42676</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="K10" s="11" t="n">
         <v>43314</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="11" t="n">
         <v>40503</v>
       </c>
-      <c r="M10" s="12" t="n">
+      <c r="M10" s="11" t="n">
         <v>43592</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="11" t="n">
         <v>42185</v>
       </c>
       <c r="O10" s="7" t="s">
@@ -3063,19 +2780,19 @@
       <c r="S10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="U10" s="14" t="n">
+      <c r="U10" s="13" t="n">
         <v>40489</v>
       </c>
-      <c r="V10" s="14" t="n">
+      <c r="V10" s="13" t="n">
         <v>40598</v>
       </c>
-      <c r="W10" s="14" t="n">
+      <c r="W10" s="13" t="n">
         <v>39260</v>
       </c>
-      <c r="X10" s="14" t="n">
+      <c r="X10" s="13" t="n">
         <v>41953</v>
       </c>
     </row>
@@ -3086,70 +2803,70 @@
       <c r="B11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="11" t="n">
         <v>44025</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="11" t="n">
         <v>41234</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="11" t="n">
         <v>43627</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="11" t="n">
         <v>44023</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="11" t="n">
         <v>43727</v>
       </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="11" t="n">
         <v>41928</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="11" t="n">
         <v>44014</v>
       </c>
-      <c r="J11" s="12" t="n">
+      <c r="J11" s="11" t="n">
         <v>43874</v>
       </c>
-      <c r="K11" s="12" t="n">
+      <c r="K11" s="11" t="n">
         <v>44020</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="11" t="n">
         <v>41974</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="11" t="n">
         <v>44018</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="11" t="n">
         <v>44011</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="11" t="n">
         <v>44012</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="11" t="n">
         <v>40980</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="11" t="n">
         <v>40835</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="11" t="n">
         <v>41017</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="11" t="n">
         <v>42790</v>
       </c>
-      <c r="T11" s="15" t="n">
+      <c r="T11" s="14" t="n">
         <v>43922</v>
       </c>
-      <c r="U11" s="14" t="n">
+      <c r="U11" s="13" t="n">
         <v>44004</v>
       </c>
-      <c r="V11" s="14" t="n">
+      <c r="V11" s="13" t="n">
         <v>43943</v>
       </c>
-      <c r="W11" s="14" t="n">
+      <c r="W11" s="13" t="n">
         <v>43322</v>
       </c>
-      <c r="X11" s="14" t="n">
+      <c r="X11" s="13" t="n">
         <v>43339</v>
       </c>
     </row>
@@ -3523,7 +3240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" s="16" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>159</v>
       </c>
@@ -3581,19 +3298,19 @@
       <c r="S17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T17" s="16" t="n">
+      <c r="T17" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="U17" s="16" t="n">
+      <c r="U17" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="V17" s="16" t="n">
+      <c r="V17" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="W17" s="16" t="n">
+      <c r="W17" s="15" t="n">
         <v>221</v>
       </c>
-      <c r="X17" s="16" t="n">
+      <c r="X17" s="15" t="n">
         <v>7</v>
       </c>
       <c r="AMJ17" s="0"/>
@@ -3623,10 +3340,10 @@
       <c r="H18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -3641,10 +3358,10 @@
       <c r="N18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>175</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -3656,16 +3373,16 @@
       <c r="S18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="V18" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="W18" s="9" t="s">
         <v>182</v>
       </c>
       <c r="X18" s="7" t="s">
@@ -3774,7 +3491,7 @@
       <c r="I20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="8" t="s">
         <v>214</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3813,7 +3530,7 @@
       <c r="V20" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="9" t="s">
         <v>223</v>
       </c>
       <c r="X20" s="0" t="s">
@@ -4239,299 +3956,299 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="0" t="s">
+      <c r="S28" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="U28" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="V28" s="0" t="s">
+      <c r="V28" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="W28" s="0" t="s">
+      <c r="W28" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="X28" s="0" t="s">
+      <c r="X28" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+    <row r="29" s="17" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="C29" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="J29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="N29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q29" s="7" t="s">
+      <c r="N29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="R29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="U29" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="R29" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="W29" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" s="18" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="1" t="s">
+      <c r="O30" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R30" s="1" t="s">
+      <c r="Q30" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="R30" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="T30" s="0" t="s">
+      <c r="T30" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="U30" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="V30" s="7" t="s">
+      <c r="U30" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V30" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="W30" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="W30" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="X30" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" s="18" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="7" t="n">
+      <c r="F31" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="L31" s="7" t="n">
+      <c r="L31" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="M31" s="7" t="n">
+      <c r="M31" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="N31" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="P31" s="7" t="n">
+      <c r="P31" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="Q31" s="7" t="n">
+      <c r="Q31" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="T31" s="0" t="s">
+      <c r="T31" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="U31" s="0" t="s">
+      <c r="U31" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="V31" s="0" t="s">
+      <c r="V31" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="W31" s="0" t="s">
+      <c r="W31" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="X31" s="0" t="s">
+      <c r="X31" s="17" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4913,19 +4630,19 @@
         <v>287</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>6</v>
@@ -4934,37 +4651,37 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37" s="1" t="n">
         <v>8</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>8</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P37" s="1" t="n">
         <v>8</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>9</v>
@@ -4973,10 +4690,10 @@
         <v>5</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5032,7 +4749,7 @@
       <c r="R38" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="S38" s="9" t="s">
+      <c r="S38" s="8" t="s">
         <v>304</v>
       </c>
       <c r="V38" s="7" t="s">
@@ -5076,13 +4793,13 @@
       <c r="B40" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>313</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -5097,19 +4814,19 @@
       <c r="I40" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>317</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="8" t="s">
         <v>319</v>
       </c>
       <c r="O40" s="7" t="s">
@@ -5136,7 +4853,7 @@
       <c r="V40" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="W40" s="10" t="s">
+      <c r="W40" s="9" t="s">
         <v>323</v>
       </c>
       <c r="X40" s="0" t="s">
@@ -5669,7 +5386,7 @@
         <v>287</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>2</v>
@@ -5678,34 +5395,34 @@
         <v>6</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>6</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N48" s="1" t="n">
         <v>8</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P48" s="1" t="n">
         <v>6</v>
@@ -5714,19 +5431,19 @@
         <v>2</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="V48" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="U48" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="V48" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="W48" s="0" t="n">
         <v>2</v>
@@ -6180,13 +5897,13 @@
         <v>287</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>10</v>
@@ -6195,19 +5912,19 @@
         <v>10</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56" s="1" t="n">
         <v>10</v>
@@ -6216,31 +5933,31 @@
         <v>10</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T56" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U56" s="0" t="n">
         <v>10</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X56" s="0" t="n">
         <v>10</v>
@@ -6308,7 +6025,7 @@
       <c r="S58" s="5"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="60.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>387</v>
       </c>
@@ -6464,13 +6181,13 @@
         <v>287</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>10</v>
@@ -6500,16 +6217,16 @@
         <v>10</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q61" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S61" s="1" t="n">
         <v>0</v>
@@ -6521,10 +6238,10 @@
         <v>10</v>
       </c>
       <c r="V61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W61" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="W61" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="X61" s="0" t="n">
         <v>10</v>
@@ -6750,7 +6467,7 @@
       <c r="E66" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="8" t="s">
         <v>404</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -6890,55 +6607,55 @@
         <v>287</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F68" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H68" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I68" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="K68" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L68" s="1" t="n">
         <v>4</v>
       </c>
       <c r="M68" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N68" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q68" s="1" t="n">
         <v>5</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T68" s="0" t="n">
         <v>8</v>
@@ -6950,7 +6667,7 @@
         <v>8</v>
       </c>
       <c r="W68" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X68" s="0" t="n">
         <v>9</v>
@@ -6973,7 +6690,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="9" t="s">
+      <c r="K69" s="8" t="s">
         <v>416</v>
       </c>
       <c r="L69" s="2"/>
@@ -7076,10 +6793,10 @@
       <c r="T71" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U71" s="17" t="s">
+      <c r="U71" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="V71" s="17" t="s">
+      <c r="V71" s="20" t="s">
         <v>431</v>
       </c>
       <c r="W71" s="0" t="s">
@@ -7096,16 +6813,16 @@
       <c r="B72" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>435</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="8" t="s">
         <v>437</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -7120,13 +6837,13 @@
       <c r="J72" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K72" s="9" t="s">
+      <c r="K72" s="8" t="s">
         <v>440</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="M72" s="8" t="s">
         <v>441</v>
       </c>
       <c r="N72" s="7" t="s">
@@ -7318,40 +7035,40 @@
       <c r="B75" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C75" s="18" t="n">
+      <c r="C75" s="21" t="n">
         <v>0.729</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E75" s="18" t="n">
+      <c r="E75" s="21" t="n">
         <v>0.2222</v>
       </c>
-      <c r="F75" s="18" t="n">
+      <c r="F75" s="21" t="n">
         <v>0.8947</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H75" s="18" t="n">
+      <c r="H75" s="21" t="n">
         <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="J75" s="18" t="n">
+      <c r="J75" s="21" t="n">
         <v>0.8571</v>
       </c>
-      <c r="K75" s="18" t="n">
+      <c r="K75" s="21" t="n">
         <v>0.6</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M75" s="18" t="n">
+      <c r="M75" s="21" t="n">
         <v>0.3333</v>
       </c>
-      <c r="N75" s="18" t="n">
+      <c r="N75" s="21" t="n">
         <v>0.6666</v>
       </c>
       <c r="O75" s="1" t="s">
@@ -7366,22 +7083,22 @@
       <c r="R75" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S75" s="18" t="n">
+      <c r="S75" s="21" t="n">
         <v>0.9333</v>
       </c>
-      <c r="T75" s="19" t="n">
+      <c r="T75" s="22" t="n">
         <v>0.6032</v>
       </c>
-      <c r="U75" s="19" t="n">
+      <c r="U75" s="22" t="n">
         <v>0.8926</v>
       </c>
-      <c r="V75" s="19" t="n">
+      <c r="V75" s="22" t="n">
         <v>0.6628</v>
       </c>
       <c r="W75" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="X75" s="19" t="n">
+      <c r="X75" s="22" t="n">
         <v>0.1875</v>
       </c>
     </row>
@@ -7392,72 +7109,73 @@
       <c r="B76" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C76" s="20" t="n">
+      <c r="C76" s="23" t="n">
         <v>0.2262</v>
       </c>
-      <c r="D76" s="20" t="n">
+      <c r="D76" s="23" t="n">
         <v>0.1767</v>
       </c>
-      <c r="E76" s="20" t="n">
+      <c r="E76" s="23" t="n">
         <v>0.0926</v>
       </c>
-      <c r="F76" s="20" t="n">
+      <c r="F76" s="23" t="n">
         <v>0.1776</v>
       </c>
-      <c r="G76" s="20" t="n">
+      <c r="G76" s="23" t="n">
         <v>0.2243</v>
       </c>
-      <c r="H76" s="20" t="n">
+      <c r="H76" s="23" t="n">
         <v>0.2667</v>
       </c>
-      <c r="I76" s="20" t="n">
+      <c r="I76" s="23" t="n">
         <v>0.1511</v>
       </c>
-      <c r="J76" s="20" t="n">
+      <c r="J76" s="23" t="n">
         <v>0.002</v>
       </c>
-      <c r="K76" s="20" t="n">
+      <c r="K76" s="23" t="n">
         <v>0.207</v>
       </c>
-      <c r="L76" s="20" t="n">
+      <c r="L76" s="23" t="n">
         <v>0.1739</v>
       </c>
-      <c r="M76" s="20" t="n">
+      <c r="M76" s="23" t="n">
         <v>0.0819</v>
       </c>
-      <c r="N76" s="20" t="n">
+      <c r="N76" s="23" t="n">
         <v>0.1612</v>
       </c>
-      <c r="O76" s="20" t="n">
+      <c r="O76" s="23" t="n">
         <v>0.0203</v>
       </c>
-      <c r="P76" s="20" t="n">
+      <c r="P76" s="23" t="n">
         <v>0.1376</v>
       </c>
-      <c r="Q76" s="20" t="n">
+      <c r="Q76" s="23" t="n">
         <v>0.1361</v>
       </c>
-      <c r="R76" s="20" t="n">
+      <c r="R76" s="23" t="n">
         <v>0.1434</v>
       </c>
-      <c r="S76" s="20" t="n">
+      <c r="S76" s="23" t="n">
         <v>0.004</v>
       </c>
-      <c r="T76" s="19" t="n">
+      <c r="T76" s="22" t="n">
         <v>0.0602</v>
       </c>
-      <c r="U76" s="19" t="n">
+      <c r="U76" s="22" t="n">
         <v>0.2178</v>
       </c>
-      <c r="V76" s="19" t="n">
+      <c r="V76" s="22" t="n">
         <v>0.171</v>
       </c>
-      <c r="W76" s="19" t="n">
+      <c r="W76" s="22" t="n">
         <v>0.1668</v>
       </c>
-      <c r="X76" s="19" t="n">
+      <c r="X76" s="22" t="n">
         <v>0.0247</v>
       </c>
+      <c r="AB76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
@@ -7544,67 +7262,67 @@
         <v>10</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F78" s="1" t="n">
+      <c r="G78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G78" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H78" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I78" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="L78" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M78" s="1" t="n">
+      <c r="N78" s="1" t="n">
         <v>9</v>
-      </c>
-      <c r="N78" s="1" t="n">
-        <v>7</v>
       </c>
       <c r="O78" s="1" t="n">
         <v>6</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q78" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R78" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T78" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U78" s="0" t="n">
         <v>10</v>
       </c>
       <c r="V78" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="X78" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="W78" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X78" s="0" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7657,7 +7375,7 @@
       <c r="S80" s="5"/>
       <c r="AMJ80" s="0"/>
     </row>
-    <row r="81" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
         <v>494</v>
       </c>
@@ -7715,19 +7433,19 @@
       <c r="S81" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="T81" s="16" t="n">
+      <c r="T81" s="15" t="n">
         <v>542</v>
       </c>
-      <c r="U81" s="16" t="n">
+      <c r="U81" s="15" t="n">
         <v>1395</v>
       </c>
-      <c r="V81" s="16" t="n">
+      <c r="V81" s="15" t="n">
         <v>5394</v>
       </c>
-      <c r="W81" s="16" t="n">
+      <c r="W81" s="15" t="n">
         <v>1113</v>
       </c>
-      <c r="X81" s="16" t="n">
+      <c r="X81" s="15" t="n">
         <v>134</v>
       </c>
       <c r="AMJ81" s="0"/>
@@ -7817,16 +7535,16 @@
         <v>10</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H83" s="1" t="n">
         <v>5</v>
@@ -7838,46 +7556,46 @@
         <v>5</v>
       </c>
       <c r="K83" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="L83" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="M83" s="1" t="n">
-        <v>8</v>
       </c>
       <c r="N83" s="1" t="n">
         <v>5</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q83" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R83" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T83" s="0" t="n">
         <v>5</v>
       </c>
       <c r="U83" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V83" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="V83" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="W83" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X83" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7895,7 +7613,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="9" t="s">
+      <c r="M84" s="8" t="s">
         <v>497</v>
       </c>
       <c r="N84" s="2"/>
@@ -8031,7 +7749,7 @@
       <c r="I87" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="8" t="s">
         <v>502</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -8164,16 +7882,16 @@
       <c r="D89" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>507</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="7" t="s">
         <v>507</v>
       </c>
       <c r="I89" s="7" t="s">
@@ -8535,13 +8253,13 @@
         <v>8</v>
       </c>
       <c r="E94" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H94" s="1" t="n">
         <v>5</v>
@@ -8553,7 +8271,7 @@
         <v>10</v>
       </c>
       <c r="K94" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L94" s="1" t="n">
         <v>5</v>
@@ -8562,34 +8280,34 @@
         <v>9</v>
       </c>
       <c r="N94" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q94" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R94" s="1" t="n">
         <v>6</v>
       </c>
       <c r="S94" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T94" s="0" t="n">
         <v>8</v>
       </c>
       <c r="U94" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V94" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="W94" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="V94" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="W94" s="0" t="n">
-        <v>9</v>
       </c>
       <c r="X94" s="0" t="n">
         <v>8</v>
@@ -8670,7 +8388,7 @@
       <c r="J97" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K97" s="9" t="s">
+      <c r="K97" s="8" t="s">
         <v>522</v>
       </c>
       <c r="L97" s="7" t="s">
@@ -8729,7 +8447,7 @@
       <c r="E98" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="8" t="s">
         <v>524</v>
       </c>
       <c r="G98" s="7" t="s">
@@ -8744,7 +8462,7 @@
       <c r="J98" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K98" s="9" t="s">
+      <c r="K98" s="8" t="s">
         <v>525</v>
       </c>
       <c r="L98" s="7" t="s">
@@ -8753,10 +8471,10 @@
       <c r="M98" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="N98" s="9" t="s">
+      <c r="N98" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="O98" s="9" t="s">
+      <c r="O98" s="8" t="s">
         <v>527</v>
       </c>
       <c r="P98" s="7" t="s">
@@ -8821,10 +8539,10 @@
       <c r="K99" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="L99" s="9" t="s">
+      <c r="L99" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="M99" s="9" t="s">
+      <c r="M99" s="8" t="s">
         <v>534</v>
       </c>
       <c r="N99" s="7" t="s">
@@ -8842,7 +8560,7 @@
       <c r="R99" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="S99" s="9" t="s">
+      <c r="S99" s="8" t="s">
         <v>536</v>
       </c>
       <c r="T99" s="0" t="s">
@@ -8869,31 +8587,31 @@
         <v>208</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="H100" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="I100" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J100" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="I100" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J100" s="7" t="s">
+      <c r="K100" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>210</v>
@@ -8949,61 +8667,61 @@
         <v>0</v>
       </c>
       <c r="E101" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M101" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N101" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="O101" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U101" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R101" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="S101" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="T101" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="U101" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="V101" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W101" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X101" s="0" t="n">
         <v>0</v>
@@ -9015,7 +8733,7 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -9026,8 +8744,8 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="9" t="s">
-        <v>547</v>
+      <c r="M102" s="8" t="s">
+        <v>546</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -9038,7 +8756,7 @@
     </row>
     <row r="105" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -9054,7 +8772,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
@@ -9064,7 +8782,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>94</v>
@@ -9138,7 +8856,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>94</v>
@@ -9212,7 +8930,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>94</v>
@@ -9286,7 +9004,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>94</v>
@@ -9295,7 +9013,7 @@
         <v>1573654</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>154310</v>
@@ -9304,13 +9022,13 @@
         <v>727494</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H109" s="7" t="n">
         <v>192269</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J109" s="7" t="n">
         <v>10725979</v>
@@ -9319,7 +9037,7 @@
         <v>2252783</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M109" s="7" t="n">
         <v>6322</v>
@@ -9331,7 +9049,7 @@
         <v>89081</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q109" s="7" t="n">
         <v>16078</v>
@@ -9360,7 +9078,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>94</v>
@@ -9369,7 +9087,7 @@
         <v>297209</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E110" s="7" t="n">
         <v>71872</v>
@@ -9378,13 +9096,13 @@
         <v>173808</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H110" s="7" t="n">
         <v>149144</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J110" s="7" t="n">
         <v>5201357</v>
@@ -9393,7 +9111,7 @@
         <v>1580570</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M110" s="7" t="n">
         <v>740</v>
@@ -9405,7 +9123,7 @@
         <v>42448</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q110" s="7" t="n">
         <v>3132</v>
@@ -9434,7 +9152,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>94</v>
@@ -9443,7 +9161,7 @@
         <v>1314</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E111" s="7" t="n">
         <v>1846</v>
@@ -9452,13 +9170,13 @@
         <v>132</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H111" s="7" t="n">
         <v>11</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J111" s="7" t="n">
         <v>697</v>
@@ -9467,7 +9185,7 @@
         <v>2059</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M111" s="7" t="n">
         <v>50</v>
@@ -9479,7 +9197,7 @@
         <v>488</v>
       </c>
       <c r="P111" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q111" s="7" t="n">
         <v>14</v>
@@ -9508,52 +9226,52 @@
     </row>
     <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="D112" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E112" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E112" s="7" t="s">
+      <c r="F112" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>562</v>
-      </c>
       <c r="G112" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H112" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="O112" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P112" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="M112" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="N112" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="O112" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="P112" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="Q112" s="7" t="n">
         <v>0</v>
@@ -9562,70 +9280,70 @@
         <v>0</v>
       </c>
       <c r="S112" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="T112" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="T112" s="0" t="s">
+      <c r="U112" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="U112" s="0" t="s">
+      <c r="V112" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="V112" s="0" t="s">
+      <c r="W112" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="W112" s="0" t="s">
+      <c r="X112" s="0" t="s">
         <v>572</v>
-      </c>
-      <c r="X112" s="0" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C113" s="7" t="s">
+      <c r="D113" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E113" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H113" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J113" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="L113" s="7"/>
       <c r="M113" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="N113" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="N113" s="7" t="s">
+      <c r="O113" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="O113" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="P113" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q113" s="7" t="n">
         <v>0</v>
@@ -9637,13 +9355,13 @@
         <v>0</v>
       </c>
       <c r="T113" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="U113" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="U113" s="0" t="s">
+      <c r="V113" s="0" t="s">
         <v>584</v>
-      </c>
-      <c r="V113" s="0" t="s">
-        <v>585</v>
       </c>
       <c r="W113" s="0" t="n">
         <v>0</v>
@@ -9654,7 +9372,7 @@
     </row>
     <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -9678,7 +9396,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>94</v>
@@ -9752,7 +9470,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>94</v>
@@ -9826,7 +9544,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>94</v>
@@ -9900,7 +9618,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>94</v>
@@ -9974,7 +9692,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>94</v>
@@ -10048,7 +9766,7 @@
     </row>
     <row r="120" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -10072,7 +9790,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>94</v>
@@ -10081,7 +9799,7 @@
         <v>17</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E121" s="1" t="n">
         <v>154</v>
@@ -10090,13 +9808,13 @@
         <v>14</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H121" s="1" t="n">
         <v>7</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J121" s="1" t="n">
         <v>26</v>
@@ -10105,7 +9823,7 @@
         <v>19</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M121" s="1" t="n">
         <v>8</v>
@@ -10114,10 +9832,10 @@
         <v>57</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q121" s="1" t="n">
         <v>0</v>
@@ -10146,31 +9864,31 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>74</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H122" s="1" t="n">
         <v>8</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J122" s="1" t="n">
         <v>15</v>
@@ -10179,7 +9897,7 @@
         <v>14</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M122" s="1" t="n">
         <v>4</v>
@@ -10188,10 +9906,10 @@
         <v>28</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q122" s="1" t="n">
         <v>0</v>
@@ -10220,31 +9938,31 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E123" s="1" t="n">
         <v>39</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H123" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J123" s="1" t="n">
         <v>10</v>
@@ -10253,7 +9971,7 @@
         <v>6</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M123" s="1" t="n">
         <v>2</v>
@@ -10262,10 +9980,10 @@
         <v>8</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q123" s="1" t="n">
         <v>0</v>
@@ -10294,7 +10012,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>94</v>
@@ -10303,7 +10021,7 @@
         <v>11</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>3</v>
@@ -10312,13 +10030,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H124" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J124" s="1" t="n">
         <v>0</v>
@@ -10327,7 +10045,7 @@
         <v>6</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M124" s="1" t="n">
         <v>2</v>
@@ -10336,10 +10054,10 @@
         <v>1</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q124" s="1" t="n">
         <v>0</v>
@@ -10368,7 +10086,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>94</v>
@@ -10377,7 +10095,7 @@
         <v>303</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>39</v>
@@ -10386,13 +10104,13 @@
         <v>30</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H125" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J125" s="1" t="n">
         <v>0</v>
@@ -10401,7 +10119,7 @@
         <v>54</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M125" s="1" t="n">
         <v>20</v>
@@ -10410,10 +10128,10 @@
         <v>110</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Q125" s="1" t="n">
         <v>0</v>
@@ -10442,12 +10160,12 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O126" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -10468,39 +10186,39 @@
     <hyperlink ref="U18" r:id="rId14" display="https://github.com/espressomd/espresso"/>
     <hyperlink ref="V18" r:id="rId15" display="https://github.com/espressopp/espressopp"/>
     <hyperlink ref="W18" r:id="rId16" display="https://github.com/UCL/hemelb"/>
-    <hyperlink ref="J20" r:id="rId17" display="https://github.com/aharwood2/LUMA/wiki/Performance"/>
+    <hyperlink ref="J20" r:id="rId17" display="yes, parallelism among other things described in https://github.com/aharwood2/LUMA/wiki/Performance"/>
     <hyperlink ref="W20" r:id="rId18" display="yes, performance mentioned in original publication (linked from repo - https://doi.org/10.1016/j.cpc.2008.02.013)"/>
-    <hyperlink ref="J30" r:id="rId19" display="https://github.com/aharwood2/LUMA/wiki/Validation"/>
+    <hyperlink ref="J30" r:id="rId19" display="yes, installation has a command to run the program; there is also https://github.com/aharwood2/LUMA/wiki/Validation"/>
     <hyperlink ref="S38" r:id="rId20" display="lots of packages need to be manually installed: https://travis-ci.org/github/UCL/LatBo.jl"/>
-    <hyperlink ref="C40" r:id="rId21" display="https://walberla.net/index.html"/>
-    <hyperlink ref="D40" r:id="rId22" display="http://sunlightlb.sourceforge.net/"/>
-    <hyperlink ref="E40" r:id="rId23" location="academic-papers" display="http://sailfish.us.edu.pl/media.html#academic-papers"/>
-    <hyperlink ref="J40" r:id="rId24" display="https://github.com/aharwood2/LUMA/wiki"/>
+    <hyperlink ref="C40" r:id="rId21" display="yes, some theory in publications and documentations on https://walberla.net/index.html"/>
+    <hyperlink ref="D40" r:id="rId22" display="yes, http://sunlightlb.sourceforge.net/"/>
+    <hyperlink ref="E40" r:id="rId23" location="academic-papers" display="yes, http://sailfish.us.edu.pl/media.html#academic-papers"/>
+    <hyperlink ref="J40" r:id="rId24" display="yes, link to https://github.com/aharwood2/LUMA/wiki"/>
     <hyperlink ref="K40" r:id="rId25" display="yes, reference document https://github.com/ludwig-cf/ludwig/blob/master/docs/references.tex"/>
     <hyperlink ref="M40" r:id="rId26" display="yes, some requirements in https://github.com/Olllom/lettuce/blob/master/requirements_dev.txt"/>
     <hyperlink ref="N40" r:id="rId27" display="yes, references to theory in https://pylbm.readthedocs.io/en/latest/"/>
     <hyperlink ref="W40" r:id="rId28" display="yes, theory mentioned in original publication (linked from repo – https://doi.org/10.1016/j.cpc.2008.02.013), as well as in the documentation file"/>
-    <hyperlink ref="F66" r:id="rId29" display="https://palabos.unige.ch/"/>
+    <hyperlink ref="F66" r:id="rId29" display="yes, in https://palabos.unige.ch/"/>
     <hyperlink ref="K69" r:id="rId30" display="considering https://ludwig.epcc.ed.ac.uk/index.html as user manual"/>
-    <hyperlink ref="C72" r:id="rId31" display="https://i10git.cs.fau.de/walberla/walberla"/>
-    <hyperlink ref="E72" r:id="rId32" location="development-team" display="http://sailfish.us.edu.pl/about.html#development-team"/>
-    <hyperlink ref="F72" r:id="rId33" display="https://gitlab.com/unigespc/palabos/blob/master/CONTRIBUTING.md"/>
+    <hyperlink ref="C72" r:id="rId31" display="yes, https://i10git.cs.fau.de/walberla/walberla"/>
+    <hyperlink ref="E72" r:id="rId32" location="development-team" display="yes, http://sailfish.us.edu.pl/about.html#development-team"/>
+    <hyperlink ref="F72" r:id="rId33" display="yes, https://gitlab.com/unigespc/palabos/blob/master/CONTRIBUTING.md"/>
     <hyperlink ref="K72" r:id="rId34" display="yes, https://github.com/ludwig-cf/ludwig/blob/master/CONTRIBUTING.md"/>
     <hyperlink ref="M72" r:id="rId35" display="yes, there is a contributing page https://github.com/Olllom/lettuce/blob/master/CONTRIBUTING.rst"/>
     <hyperlink ref="M84" r:id="rId36" display="api: https://github.com/Olllom/lettuce/blob/master/docs/modules.rst"/>
-    <hyperlink ref="J87" r:id="rId37" display="https://github.com/aharwood2/LUMA/blob/master/LUMA/docs/LUMA%20Coding%20Standards.pdf"/>
+    <hyperlink ref="J87" r:id="rId37" display="yes, https://github.com/aharwood2/LUMA/blob/master/LUMA/docs/LUMA%20Coding%20Standards.pdf"/>
     <hyperlink ref="K97" r:id="rId38" display="yes, README links to https://nvie.com/posts/a-successful-git-branching-model/, but the model is not given a name"/>
-    <hyperlink ref="F98" r:id="rId39" display="https://gitlab.com/unigespc/palabos/-/blob/master/CONTRIBUTING.md"/>
+    <hyperlink ref="F98" r:id="rId39" display="yes, https://gitlab.com/unigespc/palabos/-/blob/master/CONTRIBUTING.md"/>
     <hyperlink ref="K98" r:id="rId40" display="yes, in https://github.com/ludwig-cf/ludwig/blob/master/CONTRIBUTING.md"/>
     <hyperlink ref="N98" r:id="rId41" display="yes, status is “3 – Alpha” on https://pypi.org/project/pylbm/"/>
     <hyperlink ref="O98" r:id="rId42" display="yes, status is “4 – Beta” on https://pypi.org/project/lbmpy/"/>
     <hyperlink ref="L99" r:id="rId43" display="yes, commented https://code.google.com/archive/p/limbes/wikis/QuickStart.wiki"/>
     <hyperlink ref="M99" r:id="rId44" display="yes, requirements are found at https://github.com/Olllom/lettuce/blob/master/requirements_dev.txt"/>
     <hyperlink ref="S99" r:id="rId45" display="yes, clearly laid out in https://travis-ci.org/github/UCL/LatBo.jl (very good)"/>
-    <hyperlink ref="E100" r:id="rId46" display="http://sailfish.us.edu.pl/release.html"/>
-    <hyperlink ref="F100" r:id="rId47" display="https://gitlab.com/unigespc/palabos/-/blob/master/CHANGELOG.md"/>
-    <hyperlink ref="H100" r:id="rId48" display="https://github.com/carlosrosales/mplabs/blob/master/CHANGES.TXT"/>
-    <hyperlink ref="J100" r:id="rId49" display="https://github.com/aharwood2/LUMA/wiki/Release-Notes"/>
+    <hyperlink ref="E100" r:id="rId46" display="yes, http://sailfish.us.edu.pl/release.html"/>
+    <hyperlink ref="F100" r:id="rId47" display="yes, https://gitlab.com/unigespc/palabos/-/blob/master/CHANGELOG.md"/>
+    <hyperlink ref="H100" r:id="rId48" display="yes, https://github.com/carlosrosales/mplabs/blob/master/CHANGES.TXT"/>
+    <hyperlink ref="J100" r:id="rId49" display="yes, https://github.com/aharwood2/LUMA/wiki/Release-Notes"/>
     <hyperlink ref="M102" r:id="rId50" display="there is info on contributing to development at https://github.com/Olllom/lettuce/blob/master/CONTRIBUTING.rst"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -2033,7 +2033,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2099,22 +2099,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2149,13 +2133,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="V91" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
-      <selection pane="topRight" activeCell="W102" activeCellId="0" sqref="W102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
@@ -3956,299 +3940,299 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="Q28" s="16" t="s">
+      <c r="Q28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="S28" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="17" t="s">
+      <c r="S28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="U28" s="17" t="s">
+      <c r="U28" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V28" s="17" t="s">
+      <c r="V28" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="W28" s="17" t="s">
+      <c r="W28" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="X28" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+    <row r="29" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="L29" s="16" t="s">
+      <c r="J29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="N29" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q29" s="16" t="s">
+      <c r="N29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="R29" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="V29" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="W29" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" s="18" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+      <c r="R29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="O30" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="16" t="s">
+      <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="Q30" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="R30" s="16" t="s">
+      <c r="Q30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="R30" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="S30" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="U30" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="V30" s="16" t="s">
+      <c r="U30" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="V30" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="W30" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="X30" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" s="18" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="W30" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="16" t="n">
+      <c r="F31" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="16" t="n">
+      <c r="G31" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H31" s="16" t="n">
+      <c r="H31" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="I31" s="16" t="n">
+      <c r="I31" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="J31" s="16" t="n">
+      <c r="J31" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="K31" s="16" t="n">
+      <c r="K31" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="L31" s="16" t="n">
+      <c r="L31" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="M31" s="16" t="n">
+      <c r="M31" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="N31" s="16" t="n">
+      <c r="N31" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P31" s="16" t="n">
+      <c r="P31" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="Q31" s="16" t="n">
+      <c r="Q31" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="R31" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="S31" s="16" t="s">
+      <c r="S31" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="T31" s="17" t="s">
+      <c r="T31" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="U31" s="17" t="s">
+      <c r="U31" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="V31" s="17" t="s">
+      <c r="V31" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="W31" s="17" t="s">
+      <c r="W31" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="X31" s="17" t="s">
+      <c r="X31" s="15" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5897,13 +5881,13 @@
         <v>287</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>10</v>
@@ -5912,7 +5896,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>10</v>
@@ -5933,19 +5917,19 @@
         <v>10</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" s="0" t="n">
         <v>10</v>
@@ -5957,7 +5941,7 @@
         <v>7</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" s="0" t="n">
         <v>10</v>
@@ -6793,10 +6777,10 @@
       <c r="T71" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="U71" s="20" t="s">
+      <c r="U71" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="V71" s="20" t="s">
+      <c r="V71" s="16" t="s">
         <v>431</v>
       </c>
       <c r="W71" s="0" t="s">
@@ -7035,40 +7019,40 @@
       <c r="B75" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C75" s="21" t="n">
+      <c r="C75" s="17" t="n">
         <v>0.729</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E75" s="21" t="n">
+      <c r="E75" s="17" t="n">
         <v>0.2222</v>
       </c>
-      <c r="F75" s="21" t="n">
+      <c r="F75" s="17" t="n">
         <v>0.8947</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H75" s="21" t="n">
+      <c r="H75" s="17" t="n">
         <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="J75" s="21" t="n">
+      <c r="J75" s="17" t="n">
         <v>0.8571</v>
       </c>
-      <c r="K75" s="21" t="n">
+      <c r="K75" s="17" t="n">
         <v>0.6</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M75" s="21" t="n">
+      <c r="M75" s="17" t="n">
         <v>0.3333</v>
       </c>
-      <c r="N75" s="21" t="n">
+      <c r="N75" s="17" t="n">
         <v>0.6666</v>
       </c>
       <c r="O75" s="1" t="s">
@@ -7083,22 +7067,22 @@
       <c r="R75" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="S75" s="21" t="n">
+      <c r="S75" s="17" t="n">
         <v>0.9333</v>
       </c>
-      <c r="T75" s="22" t="n">
+      <c r="T75" s="18" t="n">
         <v>0.6032</v>
       </c>
-      <c r="U75" s="22" t="n">
+      <c r="U75" s="18" t="n">
         <v>0.8926</v>
       </c>
-      <c r="V75" s="22" t="n">
+      <c r="V75" s="18" t="n">
         <v>0.6628</v>
       </c>
       <c r="W75" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="X75" s="22" t="n">
+      <c r="X75" s="18" t="n">
         <v>0.1875</v>
       </c>
     </row>
@@ -7109,73 +7093,73 @@
       <c r="B76" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C76" s="23" t="n">
+      <c r="C76" s="19" t="n">
         <v>0.2262</v>
       </c>
-      <c r="D76" s="23" t="n">
+      <c r="D76" s="19" t="n">
         <v>0.1767</v>
       </c>
-      <c r="E76" s="23" t="n">
+      <c r="E76" s="19" t="n">
         <v>0.0926</v>
       </c>
-      <c r="F76" s="23" t="n">
+      <c r="F76" s="19" t="n">
         <v>0.1776</v>
       </c>
-      <c r="G76" s="23" t="n">
+      <c r="G76" s="19" t="n">
         <v>0.2243</v>
       </c>
-      <c r="H76" s="23" t="n">
+      <c r="H76" s="19" t="n">
         <v>0.2667</v>
       </c>
-      <c r="I76" s="23" t="n">
+      <c r="I76" s="19" t="n">
         <v>0.1511</v>
       </c>
-      <c r="J76" s="23" t="n">
+      <c r="J76" s="19" t="n">
         <v>0.002</v>
       </c>
-      <c r="K76" s="23" t="n">
+      <c r="K76" s="19" t="n">
         <v>0.207</v>
       </c>
-      <c r="L76" s="23" t="n">
+      <c r="L76" s="19" t="n">
         <v>0.1739</v>
       </c>
-      <c r="M76" s="23" t="n">
+      <c r="M76" s="19" t="n">
         <v>0.0819</v>
       </c>
-      <c r="N76" s="23" t="n">
+      <c r="N76" s="19" t="n">
         <v>0.1612</v>
       </c>
-      <c r="O76" s="23" t="n">
+      <c r="O76" s="19" t="n">
         <v>0.0203</v>
       </c>
-      <c r="P76" s="23" t="n">
+      <c r="P76" s="19" t="n">
         <v>0.1376</v>
       </c>
-      <c r="Q76" s="23" t="n">
+      <c r="Q76" s="19" t="n">
         <v>0.1361</v>
       </c>
-      <c r="R76" s="23" t="n">
+      <c r="R76" s="19" t="n">
         <v>0.1434</v>
       </c>
-      <c r="S76" s="23" t="n">
+      <c r="S76" s="19" t="n">
         <v>0.004</v>
       </c>
-      <c r="T76" s="22" t="n">
+      <c r="T76" s="18" t="n">
         <v>0.0602</v>
       </c>
-      <c r="U76" s="22" t="n">
+      <c r="U76" s="18" t="n">
         <v>0.2178</v>
       </c>
-      <c r="V76" s="22" t="n">
+      <c r="V76" s="18" t="n">
         <v>0.171</v>
       </c>
-      <c r="W76" s="22" t="n">
+      <c r="W76" s="18" t="n">
         <v>0.1668</v>
       </c>
-      <c r="X76" s="22" t="n">
+      <c r="X76" s="18" t="n">
         <v>0.0247</v>
       </c>
-      <c r="AB76" s="22"/>
+      <c r="AB76" s="18"/>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">

--- a/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="610">
   <si>
     <t xml:space="preserve">Metrics &amp; Description</t>
   </si>
@@ -1613,7 +1613,40 @@
     <t xml:space="preserve">Are constants (other than 0 and 1) hard coded into the program? </t>
   </si>
   <si>
-    <t xml:space="preserve">no, did not see any in 10 files</t>
+    <t xml:space="preserve">({yes*, no , unclear})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, grid weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, buffer size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, collision parameters – vague variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, collision neighbours, iterations in examples, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, matrices definitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, velocity directions, limits of planes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, matrices, gradients (fluid, other), unclear tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, matrices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, epsilon, pi, blood parameters, matrices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, iterations, Avogadro constant, Boltzmann constant in Joule per Kelvin</t>
   </si>
   <si>
     <t xml:space="preserve">Comments are clear, indicate what is being done, not how?</t>
@@ -2034,7 +2067,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2123,6 +2156,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2142,16 +2187,16 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="R80" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+      <selection pane="topRight" activeCell="Z88" activeCellId="0" sqref="Z88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="26.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="29.86"/>
@@ -7998,86 +8043,86 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+    <row r="88" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F88" s="7" t="s">
+      <c r="B88" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="N88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="O88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="R88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="S88" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="T88" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="U88" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="V88" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="W88" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="X88" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y88" s="0" t="s">
-        <v>218</v>
+      <c r="C88" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="M88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="N88" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="O88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="P88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="R88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="S88" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="T88" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="U88" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="V88" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="W88" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X88" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y88" s="23" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>500</v>
@@ -8154,7 +8199,7 @@
     </row>
     <row r="90" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>500</v>
@@ -8163,31 +8208,31 @@
         <v>218</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>218</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>218</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>218</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="M90" s="7" t="s">
         <v>218</v>
@@ -8202,28 +8247,28 @@
         <v>218</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="U90" s="0" t="s">
         <v>218</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>218</v>
       </c>
       <c r="X90" s="0" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="Y90" s="0" t="s">
         <v>218</v>
@@ -8231,7 +8276,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>500</v>
@@ -8255,7 +8300,7 @@
         <v>218</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>218</v>
@@ -8264,10 +8309,10 @@
         <v>218</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="N91" s="7" t="s">
         <v>218</v>
@@ -8276,10 +8321,10 @@
         <v>218</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="R91" s="7" t="s">
         <v>218</v>
@@ -8291,24 +8336,24 @@
         <v>218</v>
       </c>
       <c r="U91" s="0" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="W91" s="0" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="X91" s="0" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="Y91" s="0" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>500</v>
@@ -8465,27 +8510,27 @@
         <v>213</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -8509,10 +8554,10 @@
     </row>
     <row r="96" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>199</v>
@@ -8542,7 +8587,7 @@
         <v>199</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="M96" s="7" t="s">
         <v>199</v>
@@ -8586,7 +8631,7 @@
     </row>
     <row r="97" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>227</v>
@@ -8604,7 +8649,7 @@
         <v>199</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>199</v>
@@ -8619,7 +8664,7 @@
         <v>433</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="M97" s="7" t="s">
         <v>199</v>
@@ -8628,10 +8673,10 @@
         <v>199</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q97" s="7" t="s">
         <v>199</v>
@@ -8646,10 +8691,10 @@
         <v>199</v>
       </c>
       <c r="U97" s="0" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>199</v>
@@ -8663,7 +8708,7 @@
     </row>
     <row r="98" customFormat="false" ht="27.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>197</v>
@@ -8684,10 +8729,10 @@
         <v>199</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>199</v>
@@ -8699,10 +8744,10 @@
         <v>199</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>199</v>
@@ -8714,13 +8759,13 @@
         <v>199</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="T98" s="8" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="U98" s="0" t="s">
         <v>199</v>
@@ -8732,7 +8777,7 @@
         <v>199</v>
       </c>
       <c r="X98" s="0" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Y98" s="0" t="s">
         <v>199</v>
@@ -8740,13 +8785,13 @@
     </row>
     <row r="99" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>429</v>
@@ -8755,25 +8800,25 @@
         <v>199</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>199</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M99" s="7" t="s">
         <v>199</v>
@@ -8899,7 +8944,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -8911,7 +8956,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="8" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -8922,7 +8967,7 @@
     </row>
     <row r="104" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8939,7 +8984,7 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
@@ -8948,7 +8993,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>98</v>
@@ -9025,7 +9070,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>98</v>
@@ -9102,7 +9147,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>98</v>
@@ -9179,19 +9224,19 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D108" s="7" t="n">
         <v>1573654</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="F108" s="7" t="n">
         <v>154310</v>
@@ -9200,13 +9245,13 @@
         <v>727494</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I108" s="7" t="n">
         <v>192269</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K108" s="7" t="n">
         <v>10725979</v>
@@ -9215,7 +9260,7 @@
         <v>2252783</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="N108" s="7" t="n">
         <v>6322</v>
@@ -9227,7 +9272,7 @@
         <v>89081</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="R108" s="7" t="n">
         <v>16078</v>
@@ -9256,19 +9301,19 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D109" s="7" t="n">
         <v>297209</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="F109" s="7" t="n">
         <v>71872</v>
@@ -9277,13 +9322,13 @@
         <v>173808</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I109" s="7" t="n">
         <v>149144</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K109" s="7" t="n">
         <v>5201357</v>
@@ -9292,7 +9337,7 @@
         <v>1580570</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="N109" s="7" t="n">
         <v>740</v>
@@ -9304,7 +9349,7 @@
         <v>42448</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="R109" s="7" t="n">
         <v>3132</v>
@@ -9333,19 +9378,19 @@
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D110" s="7" t="n">
         <v>1314</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="F110" s="7" t="n">
         <v>1846</v>
@@ -9354,13 +9399,13 @@
         <v>132</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I110" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K110" s="7" t="n">
         <v>697</v>
@@ -9369,7 +9414,7 @@
         <v>2059</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="N110" s="7" t="n">
         <v>50</v>
@@ -9381,7 +9426,7 @@
         <v>488</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="R110" s="7" t="n">
         <v>14</v>
@@ -9410,55 +9455,55 @@
     </row>
     <row r="111" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I111" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="O111" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P111" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q111" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="P111" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q111" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="R111" s="7" t="n">
         <v>0</v>
@@ -9467,73 +9512,73 @@
         <v>0</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="U111" s="0" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="V111" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="W111" s="0" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="X111" s="0" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="Y111" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="I112" s="7" t="n">
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="M112" s="7"/>
       <c r="N112" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="O112" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="P112" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="Q112" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="R112" s="7" t="n">
         <v>0</v>
@@ -9545,13 +9590,13 @@
         <v>0</v>
       </c>
       <c r="U112" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="V112" s="0" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="W112" s="0" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="X112" s="0" t="n">
         <v>0</v>
@@ -9562,7 +9607,7 @@
     </row>
     <row r="113" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -9586,7 +9631,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>98</v>
@@ -9663,7 +9708,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>98</v>
@@ -9740,7 +9785,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>98</v>
@@ -9817,7 +9862,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>98</v>
@@ -9894,7 +9939,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>98</v>
@@ -9971,7 +10016,7 @@
     </row>
     <row r="119" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -9995,10 +10040,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>234</v>
@@ -10040,7 +10085,7 @@
         <v>57</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="Q120" s="1" t="s">
         <v>234</v>
@@ -10072,10 +10117,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>234</v>
@@ -10117,7 +10162,7 @@
         <v>28</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="Q121" s="1" t="s">
         <v>234</v>
@@ -10149,10 +10194,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>234</v>
@@ -10194,7 +10239,7 @@
         <v>8</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>234</v>
@@ -10226,10 +10271,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>234</v>
@@ -10271,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="Q123" s="1" t="s">
         <v>234</v>
@@ -10303,10 +10348,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>234</v>
@@ -10348,7 +10393,7 @@
         <v>110</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="Q124" s="1" t="s">
         <v>234</v>
@@ -10380,12 +10425,12 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P125" s="1" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F126" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -2176,14 +2176,14 @@
   <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="Y34" activeCellId="0" sqref="Y34"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
@@ -4051,7 +4051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>226</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>228</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>228</v>
@@ -4744,7 +4744,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>276</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>9</v>

--- a/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
+++ b/StateOfPractice/Peter-Notes/Completed_LBS_Combined_MeasurementTemplate_EmpiricalMeasures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="611">
   <si>
     <t xml:space="preserve">Software name?</t>
   </si>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t xml:space="preserve">not a github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github not used for PM</t>
   </si>
   <si>
     <t xml:space="preserve">None – not a github</t>
@@ -2067,7 +2070,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2076,7 +2079,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2096,12 +2111,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2116,8 +2151,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2136,8 +2179,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2148,7 +2203,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2176,20 +2239,24 @@
   <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="F37" activeCellId="0" sqref="F37"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="L77" activeCellId="0" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="13" style="1" width="26.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="29.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.86"/>
@@ -2214,10 +2281,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2229,7 +2296,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2259,7 +2326,7 @@
       <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="0" t="s">
@@ -2272,41 +2339,46 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" s="11" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="V3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2327,10 +2399,10 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2342,7 +2414,7 @@
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -2372,7 +2444,7 @@
       <c r="U4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W4" s="0" t="s">
@@ -2392,73 +2464,73 @@
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2469,64 +2541,64 @@
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="W6" s="0" t="s">
@@ -2535,7 +2607,7 @@
       <c r="X6" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2546,73 +2618,73 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2623,64 +2695,64 @@
       <c r="B8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="13" t="n">
         <v>2</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="3" t="n">
         <v>76</v>
       </c>
       <c r="W8" s="0" t="n">
@@ -2700,64 +2772,64 @@
       <c r="B9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="13" t="s">
         <v>99</v>
       </c>
       <c r="U9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" s="3" t="s">
         <v>99</v>
       </c>
       <c r="W9" s="0" t="s">
@@ -2777,150 +2849,150 @@
       <c r="B10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="19" t="n">
         <v>39661</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="19" t="n">
         <v>38597</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="19" t="n">
         <v>41196</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="20" t="n">
         <v>39280</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="19" t="n">
         <v>39614</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="19" t="n">
         <v>39607</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="19" t="n">
         <v>42676</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="20" t="n">
         <v>43314</v>
       </c>
-      <c r="M10" s="11" t="n">
+      <c r="M10" s="19" t="n">
         <v>40503</v>
       </c>
-      <c r="N10" s="11" t="n">
+      <c r="N10" s="19" t="n">
         <v>43592</v>
       </c>
-      <c r="O10" s="11" t="n">
+      <c r="O10" s="19" t="n">
         <v>42185</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="13" t="n">
         <v>2005</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="13" t="n">
         <v>2005</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="U10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="22" t="n">
         <v>40489</v>
       </c>
-      <c r="W10" s="13" t="n">
+      <c r="W10" s="23" t="n">
         <v>40598</v>
       </c>
-      <c r="X10" s="13" t="n">
+      <c r="X10" s="23" t="n">
         <v>39260</v>
       </c>
-      <c r="Y10" s="13" t="n">
+      <c r="Y10" s="23" t="n">
         <v>41953</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="19" t="n">
         <v>43898</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="19" t="n">
         <v>44025</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="19" t="n">
         <v>41234</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="19" t="n">
         <v>43627</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="20" t="n">
         <v>44023</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="20" t="n">
         <v>43727</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="19" t="n">
         <v>41928</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="19" t="n">
         <v>44014</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="19" t="n">
         <v>43874</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="20" t="n">
         <v>44020</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="19" t="n">
         <v>41974</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="19" t="n">
         <v>44018</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="19" t="n">
         <v>44011</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="19" t="n">
         <v>44012</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="19" t="n">
         <v>40980</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="19" t="n">
         <v>40835</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="19" t="n">
         <v>41017</v>
       </c>
-      <c r="T11" s="11" t="n">
+      <c r="T11" s="19" t="n">
         <v>42790</v>
       </c>
-      <c r="U11" s="15" t="n">
+      <c r="U11" s="25" t="n">
         <v>43922</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="22" t="n">
         <v>44004</v>
       </c>
-      <c r="W11" s="13" t="n">
+      <c r="W11" s="23" t="n">
         <v>43943</v>
       </c>
-      <c r="X11" s="13" t="n">
+      <c r="X11" s="23" t="n">
         <v>43322</v>
       </c>
-      <c r="Y11" s="13" t="n">
+      <c r="Y11" s="23" t="n">
         <v>43339</v>
       </c>
     </row>
@@ -2931,64 +3003,64 @@
       <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="13" t="s">
         <v>117</v>
       </c>
       <c r="U12" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="V12" s="3" t="s">
         <v>116</v>
       </c>
       <c r="W12" s="0" t="s">
@@ -3008,64 +3080,64 @@
       <c r="B13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="13" t="s">
         <v>125</v>
       </c>
       <c r="U13" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="V13" s="3" t="s">
         <v>121</v>
       </c>
       <c r="W13" s="0" t="s">
@@ -3085,64 +3157,64 @@
       <c r="B14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="13" t="s">
         <v>129</v>
       </c>
       <c r="U14" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="V14" s="3" t="s">
         <v>130</v>
       </c>
       <c r="W14" s="0" t="s">
@@ -3162,64 +3234,64 @@
       <c r="B15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="13" t="s">
         <v>140</v>
       </c>
       <c r="U15" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="V15" s="3" t="s">
         <v>140</v>
       </c>
       <c r="W15" s="0" t="s">
@@ -3239,64 +3311,64 @@
       <c r="B16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="13" t="s">
         <v>99</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="V16" s="3" t="s">
         <v>145</v>
       </c>
       <c r="W16" s="0" t="s">
@@ -3309,80 +3381,80 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" s="16" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="26" customFormat="true" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="13" t="n">
         <v>143</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="4" t="n">
         <v>315</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="T17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="U17" s="16" t="n">
+      <c r="U17" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="V17" s="16" t="n">
+      <c r="V17" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="W17" s="16" t="n">
+      <c r="W17" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="X17" s="16" t="n">
+      <c r="X17" s="26" t="n">
         <v>221</v>
       </c>
-      <c r="Y17" s="16" t="n">
+      <c r="Y17" s="26" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3405,22 +3477,22 @@
       <c r="F18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>156</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="4" t="s">
         <v>159</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -3432,10 +3504,10 @@
       <c r="O18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="14" t="s">
         <v>163</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -3447,19 +3519,19 @@
       <c r="T18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="V18" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="X18" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Y18" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3470,64 +3542,64 @@
       <c r="B19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="13" t="s">
         <v>190</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="V19" s="3" t="s">
         <v>192</v>
       </c>
       <c r="W19" s="0" t="s">
@@ -3559,10 +3631,10 @@
       <c r="F20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -3571,10 +3643,10 @@
       <c r="J20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>204</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -3604,13 +3676,13 @@
       <c r="U20" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="V20" s="0" t="s">
+      <c r="V20" s="3" t="s">
         <v>210</v>
       </c>
       <c r="W20" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="X20" s="9" t="s">
+      <c r="X20" s="17" t="s">
         <v>212</v>
       </c>
       <c r="Y20" s="0" t="s">
@@ -3618,53 +3690,54 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" s="7" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+    </row>
+    <row r="22" s="11" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="V22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -3685,10 +3758,10 @@
       <c r="F23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -3700,7 +3773,7 @@
       <c r="K23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -3730,7 +3803,7 @@
       <c r="U23" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V23" s="0" t="s">
+      <c r="V23" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W23" s="0" t="s">
@@ -3762,10 +3835,10 @@
       <c r="F24" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -3777,7 +3850,7 @@
       <c r="K24" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -3807,7 +3880,7 @@
       <c r="U24" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="V24" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W24" s="0" t="s">
@@ -3839,10 +3912,10 @@
       <c r="F25" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -3854,7 +3927,7 @@
       <c r="K25" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -3884,7 +3957,7 @@
       <c r="U25" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="V25" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W25" s="0" t="s">
@@ -3916,10 +3989,10 @@
       <c r="F26" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -3931,7 +4004,7 @@
       <c r="K26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -3961,7 +4034,7 @@
       <c r="U26" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V26" s="0" t="s">
+      <c r="V26" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W26" s="0" t="s">
@@ -3993,10 +4066,10 @@
       <c r="F27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>199</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -4008,7 +4081,7 @@
       <c r="K27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -4038,7 +4111,7 @@
       <c r="U27" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V27" s="0" t="s">
+      <c r="V27" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W27" s="0" t="s">
@@ -4058,150 +4131,150 @@
       <c r="B28" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="U28" s="16" t="s">
+      <c r="T28" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="U28" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="V28" s="16" t="s">
+      <c r="V28" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="W28" s="16" t="s">
+      <c r="W28" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="X28" s="16" t="s">
+      <c r="X28" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="Y28" s="16" t="s">
+      <c r="Y28" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" s="16" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="26" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="X29" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y29" s="16" t="s">
+      <c r="C29" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="U29" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="V29" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="W29" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="X29" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29" s="26" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4212,73 +4285,73 @@
       <c r="B30" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q30" s="2" t="s">
+      <c r="P30" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S30" s="2" t="s">
+      <c r="R30" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S30" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="U30" s="16" t="s">
+      <c r="U30" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="V30" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="W30" s="2" t="s">
+      <c r="V30" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="W30" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="X30" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y30" s="16" t="s">
+      <c r="X30" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y30" s="26" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4289,73 +4362,73 @@
       <c r="B31" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="M31" s="2" t="n">
+      <c r="M31" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="N31" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="Q31" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="R31" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="U31" s="16" t="s">
+      <c r="U31" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="V31" s="16" t="s">
+      <c r="V31" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="W31" s="16" t="s">
+      <c r="W31" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="X31" s="16" t="s">
+      <c r="X31" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="Y31" s="16" t="s">
+      <c r="Y31" s="26" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4366,64 +4439,64 @@
       <c r="B32" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="13" t="s">
         <v>264</v>
       </c>
       <c r="U32" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="V32" s="0" t="s">
+      <c r="V32" s="3" t="s">
         <v>264</v>
       </c>
       <c r="W32" s="0" t="s">
@@ -4455,10 +4528,10 @@
       <c r="F33" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I33" s="1" t="n">
@@ -4470,7 +4543,7 @@
       <c r="K33" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L33" s="1" t="n">
+      <c r="L33" s="2" t="n">
         <v>3</v>
       </c>
       <c r="M33" s="1" t="n">
@@ -4500,7 +4573,7 @@
       <c r="U33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="V33" s="3" t="n">
         <v>18</v>
       </c>
       <c r="W33" s="0" t="n">
@@ -4532,10 +4605,10 @@
       <c r="F34" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>199</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -4547,7 +4620,7 @@
       <c r="K34" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -4577,7 +4650,7 @@
       <c r="U34" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V34" s="0" t="s">
+      <c r="V34" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W34" s="0" t="s">
@@ -4609,10 +4682,10 @@
       <c r="F35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -4624,7 +4697,7 @@
       <c r="K35" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -4654,7 +4727,7 @@
       <c r="U35" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V35" s="0" t="s">
+      <c r="V35" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W35" s="0" t="s">
@@ -4686,10 +4759,10 @@
       <c r="F36" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>275</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -4701,7 +4774,7 @@
       <c r="K36" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="2" t="s">
         <v>275</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -4731,7 +4804,7 @@
       <c r="U36" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="V36" s="0" t="s">
+      <c r="V36" s="3" t="s">
         <v>275</v>
       </c>
       <c r="W36" s="0" t="s">
@@ -4763,10 +4836,10 @@
       <c r="F37" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -4778,7 +4851,7 @@
       <c r="K37" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="L37" s="2" t="n">
         <v>6</v>
       </c>
       <c r="M37" s="1" t="n">
@@ -4808,7 +4881,7 @@
       <c r="U37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="V37" s="3" t="n">
         <v>10</v>
       </c>
       <c r="W37" s="0" t="n">
@@ -4822,96 +4895,97 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="T38" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="W38" s="2" t="s">
+      <c r="W38" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="X38" s="2" t="s">
+      <c r="X38" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="Y38" s="2" t="s">
+      <c r="Y38" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+    <row r="39" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="V39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
@@ -4920,70 +4994,70 @@
       <c r="B40" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K40" s="8" t="s">
+      <c r="J40" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="M40" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N40" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="P40" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="Q40" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R40" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="T40" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U40" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="V40" s="0" t="s">
+      <c r="V40" s="3" t="s">
         <v>314</v>
       </c>
       <c r="W40" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="X40" s="9" t="s">
+      <c r="X40" s="17" t="s">
         <v>315</v>
       </c>
       <c r="Y40" s="0" t="s">
@@ -4997,64 +5071,64 @@
       <c r="B41" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="13" t="s">
         <v>99</v>
       </c>
       <c r="U41" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="V41" s="0" t="s">
+      <c r="V41" s="3" t="s">
         <v>319</v>
       </c>
       <c r="W41" s="0" t="s">
@@ -5086,10 +5160,10 @@
       <c r="F42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -5101,7 +5175,7 @@
       <c r="K42" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -5131,7 +5205,7 @@
       <c r="U42" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V42" s="0" t="s">
+      <c r="V42" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W42" s="0" t="s">
@@ -5163,10 +5237,10 @@
       <c r="F43" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -5178,7 +5252,7 @@
       <c r="K43" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -5208,7 +5282,7 @@
       <c r="U43" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V43" s="0" t="s">
+      <c r="V43" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W43" s="0" t="s">
@@ -5240,10 +5314,10 @@
       <c r="F44" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>328</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -5255,7 +5329,7 @@
       <c r="K44" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -5285,7 +5359,7 @@
       <c r="U44" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="V44" s="0" t="s">
+      <c r="V44" s="3" t="s">
         <v>329</v>
       </c>
       <c r="W44" s="0" t="s">
@@ -5317,10 +5391,10 @@
       <c r="F45" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>234</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -5332,7 +5406,7 @@
       <c r="K45" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -5362,7 +5436,7 @@
       <c r="U45" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="V45" s="0" t="s">
+      <c r="V45" s="3" t="s">
         <v>234</v>
       </c>
       <c r="W45" s="0" t="s">
@@ -5382,64 +5456,64 @@
       <c r="B46" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="C46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O46" s="2" t="s">
+      <c r="L46" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T46" s="2" t="s">
+      <c r="P46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T46" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U46" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="V46" s="0" t="s">
+      <c r="V46" s="3" t="s">
         <v>99</v>
       </c>
       <c r="W46" s="0" t="s">
@@ -5459,64 +5533,64 @@
       <c r="B47" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L47" s="2" t="s">
+      <c r="C47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T47" s="2" t="s">
+      <c r="M47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T47" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U47" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V47" s="0" t="s">
+      <c r="V47" s="3" t="s">
         <v>335</v>
       </c>
       <c r="W47" s="0" t="s">
@@ -5548,10 +5622,10 @@
       <c r="F48" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G48" s="1" t="n">
+      <c r="G48" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I48" s="1" t="n">
@@ -5563,7 +5637,7 @@
       <c r="K48" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="L48" s="2" t="n">
         <v>9</v>
       </c>
       <c r="M48" s="1" t="n">
@@ -5593,7 +5667,7 @@
       <c r="U48" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V48" s="0" t="n">
+      <c r="V48" s="3" t="n">
         <v>7</v>
       </c>
       <c r="W48" s="0" t="n">
@@ -5607,71 +5681,72 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2" t="s">
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q49" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2" t="s">
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="W49" s="2" t="s">
+      <c r="W49" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="Y49" s="2" t="s">
+      <c r="Y49" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+    <row r="50" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="V50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -5680,7 +5755,7 @@
       <c r="B51" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="13" t="s">
         <v>347</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -5692,10 +5767,10 @@
       <c r="F51" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>199</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -5707,7 +5782,7 @@
       <c r="K51" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="2" t="s">
         <v>352</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -5737,7 +5812,7 @@
       <c r="U51" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="V51" s="0" t="s">
+      <c r="V51" s="3" t="s">
         <v>199</v>
       </c>
       <c r="W51" s="0" t="s">
@@ -5760,61 +5835,61 @@
       <c r="C52" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T52" s="2" t="s">
+      <c r="D52" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T52" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U52" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V52" s="0" t="s">
+      <c r="V52" s="3" t="s">
         <v>234</v>
       </c>
       <c r="W52" s="0" t="s">
@@ -5834,67 +5909,67 @@
       <c r="B53" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L53" s="2" t="s">
+      <c r="C53" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="N53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O53" s="2" t="s">
+      <c r="N53" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O53" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T53" s="2" t="s">
+      <c r="P53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="T53" s="13" t="s">
         <v>234</v>
       </c>
       <c r="U53" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V53" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="W53" s="2" t="s">
+      <c r="V53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W53" s="13" t="s">
         <v>368</v>
       </c>
       <c r="X53" s="0" t="s">
@@ -5911,64 +5986,64 @@
       <c r="B54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M54" s="2" t="s">
+      <c r="C54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M54" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="N54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T54" s="2" t="s">
+      <c r="N54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="T54" s="13" t="s">
         <v>234</v>
       </c>
       <c r="U54" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="V54" s="0" t="s">
+      <c r="V54" s="3" t="s">
         <v>234</v>
       </c>
       <c r="W54" s="0" t="s">
@@ -5988,64 +6063,64 @@
       <c r="B55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T55" s="2" t="s">
+      <c r="C55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="T55" s="13" t="s">
         <v>234</v>
       </c>
       <c r="U55" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="V55" s="0" t="s">
+      <c r="V55" s="3" t="s">
         <v>234</v>
       </c>
       <c r="W55" s="0" t="s">
@@ -6077,10 +6152,10 @@
       <c r="F56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="1" t="n">
+      <c r="G56" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I56" s="1" t="n">
@@ -6092,7 +6167,7 @@
       <c r="K56" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L56" s="1" t="n">
+      <c r="L56" s="2" t="n">
         <v>7</v>
       </c>
       <c r="M56" s="1" t="n">
@@ -6122,7 +6197,7 @@
       <c r="U56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="V56" s="0" t="n">
+      <c r="V56" s="3" t="n">
         <v>10</v>
       </c>
       <c r="W56" s="0" t="n">
@@ -6136,67 +6211,68 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="2" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="2" t="s">
+      <c r="L57" s="6"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="Q57" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="R57" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="S57" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="T57" s="2" t="s">
+      <c r="T57" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="X57" s="2" t="s">
+      <c r="X57" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+    <row r="58" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="V58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="60.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -6217,10 +6293,10 @@
       <c r="F59" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="G59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -6232,7 +6308,7 @@
       <c r="K59" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -6262,7 +6338,7 @@
       <c r="U59" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V59" s="0" t="s">
+      <c r="V59" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W59" s="0" t="s">
@@ -6294,10 +6370,10 @@
       <c r="F60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -6309,7 +6385,7 @@
       <c r="K60" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -6339,7 +6415,7 @@
       <c r="U60" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V60" s="0" t="s">
+      <c r="V60" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W60" s="0" t="s">
@@ -6371,10 +6447,10 @@
       <c r="F61" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G61" s="1" t="n">
+      <c r="G61" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I61" s="1" t="n">
@@ -6386,7 +6462,7 @@
       <c r="K61" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L61" s="1" t="n">
+      <c r="L61" s="2" t="n">
         <v>10</v>
       </c>
       <c r="M61" s="1" t="n">
@@ -6416,7 +6492,7 @@
       <c r="U61" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="V61" s="0" t="n">
+      <c r="V61" s="3" t="n">
         <v>10</v>
       </c>
       <c r="W61" s="0" t="n">
@@ -6430,61 +6506,62 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="73.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2" t="s">
+      <c r="E62" s="5"/>
+      <c r="F62" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="2" t="s">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="13" t="s">
         <v>342</v>
       </c>
       <c r="X62" s="0" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
+    <row r="63" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="V63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
@@ -6505,10 +6582,10 @@
       <c r="F64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="G64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -6520,7 +6597,7 @@
       <c r="K64" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -6550,7 +6627,7 @@
       <c r="U64" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V64" s="0" t="s">
+      <c r="V64" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W64" s="0" t="s">
@@ -6563,7 +6640,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>394</v>
       </c>
@@ -6582,10 +6659,10 @@
       <c r="F65" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="G65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>218</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -6597,7 +6674,7 @@
       <c r="K65" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -6627,7 +6704,7 @@
       <c r="U65" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V65" s="0" t="s">
+      <c r="V65" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W65" s="0" t="s">
@@ -6659,10 +6736,10 @@
       <c r="F66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>199</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -6674,7 +6751,7 @@
       <c r="K66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -6704,7 +6781,7 @@
       <c r="U66" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V66" s="0" t="s">
+      <c r="V66" s="3" t="s">
         <v>199</v>
       </c>
       <c r="W66" s="0" t="s">
@@ -6736,10 +6813,10 @@
       <c r="F67" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="2" t="s">
         <v>403</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -6751,7 +6828,7 @@
       <c r="K67" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="2" t="s">
         <v>400</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -6781,7 +6858,7 @@
       <c r="U67" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="V67" s="0" t="s">
+      <c r="V67" s="3" t="s">
         <v>404</v>
       </c>
       <c r="W67" s="0" t="s">
@@ -6794,7 +6871,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>276</v>
       </c>
@@ -6813,10 +6890,10 @@
       <c r="F68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G68" s="1" t="n">
+      <c r="G68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H68" s="1" t="n">
+      <c r="H68" s="2" t="n">
         <v>9</v>
       </c>
       <c r="I68" s="1" t="n">
@@ -6828,7 +6905,7 @@
       <c r="K68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L68" s="1" t="n">
+      <c r="L68" s="2" t="n">
         <v>9</v>
       </c>
       <c r="M68" s="1" t="n">
@@ -6858,7 +6935,7 @@
       <c r="U68" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="V68" s="0" t="n">
+      <c r="V68" s="3" t="n">
         <v>9</v>
       </c>
       <c r="W68" s="0" t="n">
@@ -6872,64 +6949,65 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="46.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2" t="s">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="2" t="s">
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="8" t="s">
+      <c r="H69" s="6"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="2" t="s">
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="Q69" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="R69" s="3"/>
-      <c r="S69" s="2" t="s">
+      <c r="R69" s="5"/>
+      <c r="S69" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="T69" s="3"/>
-    </row>
-    <row r="70" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="V70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
@@ -6938,67 +7016,67 @@
       <c r="B71" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="13" t="n">
         <v>2.7</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="13" t="n">
         <v>2012.2</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="13" t="n">
         <v>1.6</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="M71" s="2" t="n">
+      <c r="M71" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="N71" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="O71" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="P71" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="Q71" s="2" t="n">
+      <c r="Q71" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="S71" s="2" t="n">
+      <c r="R71" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="S71" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="T71" s="13" t="s">
         <v>234</v>
       </c>
       <c r="U71" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="V71" s="17" t="s">
+      <c r="V71" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="W71" s="17" t="s">
+      <c r="W71" s="29" t="s">
         <v>424</v>
       </c>
       <c r="X71" s="0" t="s">
@@ -7015,64 +7093,64 @@
       <c r="B72" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="E72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="I72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K72" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N72" s="8" t="s">
+      <c r="M72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N72" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T72" s="2" t="s">
+      <c r="O72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T72" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U72" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="V72" s="0" t="s">
+      <c r="V72" s="3" t="s">
         <v>437</v>
       </c>
       <c r="W72" s="0" t="s">
@@ -7081,7 +7159,7 @@
       <c r="X72" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="Y72" s="2" t="s">
+      <c r="Y72" s="13" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7092,64 +7170,64 @@
       <c r="B73" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="N73" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="O73" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="P73" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="Q73" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R73" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="S73" s="2" t="s">
+      <c r="S73" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="T73" s="13" t="s">
         <v>458</v>
       </c>
       <c r="U73" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="V73" s="0" t="s">
+      <c r="V73" s="3" t="s">
         <v>460</v>
       </c>
       <c r="W73" s="0" t="s">
@@ -7158,7 +7236,7 @@
       <c r="X73" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="Y73" s="2" t="s">
+      <c r="Y73" s="13" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7169,64 +7247,64 @@
       <c r="B74" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="N74" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="O74" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="P74" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="Q74" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="R74" s="2" t="s">
+      <c r="R74" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="S74" s="2" t="s">
+      <c r="S74" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="T74" s="2" t="s">
+      <c r="T74" s="13" t="s">
         <v>466</v>
       </c>
       <c r="U74" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="V74" s="0" t="s">
+      <c r="V74" s="3" t="s">
         <v>466</v>
       </c>
       <c r="W74" s="0" t="s">
@@ -7239,7 +7317,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>469</v>
       </c>
@@ -7249,226 +7327,226 @@
       <c r="C75" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D75" s="18" t="n">
+      <c r="D75" s="30" t="n">
         <v>0.729</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F75" s="18" t="n">
+      <c r="F75" s="30" t="n">
         <v>0.2222</v>
       </c>
-      <c r="G75" s="18" t="n">
+      <c r="G75" s="31" t="n">
         <v>0.8947</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I75" s="18" t="n">
+      <c r="I75" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="K75" s="18" t="n">
+        <v>472</v>
+      </c>
+      <c r="K75" s="30" t="n">
         <v>0.8571</v>
       </c>
-      <c r="L75" s="18" t="n">
+      <c r="L75" s="31" t="n">
         <v>0.6</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="N75" s="18" t="n">
+        <v>473</v>
+      </c>
+      <c r="N75" s="30" t="n">
         <v>0.3333</v>
       </c>
-      <c r="O75" s="18" t="n">
+      <c r="O75" s="30" t="n">
         <v>0.6666</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="T75" s="18" t="n">
+        <v>476</v>
+      </c>
+      <c r="T75" s="30" t="n">
         <v>0.9333</v>
       </c>
-      <c r="U75" s="19" t="n">
+      <c r="U75" s="32" t="n">
         <v>0.6032</v>
       </c>
-      <c r="V75" s="19" t="n">
+      <c r="V75" s="33" t="n">
         <v>0.8926</v>
       </c>
-      <c r="W75" s="19" t="n">
+      <c r="W75" s="32" t="n">
         <v>0.6628</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y75" s="19" t="n">
+        <v>476</v>
+      </c>
+      <c r="Y75" s="32" t="n">
         <v>0.1875</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="B76" s="20" t="s">
+      <c r="A76" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B76" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="C76" s="21" t="n">
+      <c r="C76" s="35" t="n">
         <v>0.0806</v>
       </c>
-      <c r="D76" s="21" t="n">
+      <c r="D76" s="35" t="n">
         <v>0.2262</v>
       </c>
-      <c r="E76" s="21" t="n">
+      <c r="E76" s="35" t="n">
         <v>0.1767</v>
       </c>
-      <c r="F76" s="21" t="n">
+      <c r="F76" s="35" t="n">
         <v>0.0926</v>
       </c>
-      <c r="G76" s="21" t="n">
+      <c r="G76" s="36" t="n">
         <v>0.1776</v>
       </c>
-      <c r="H76" s="21" t="n">
+      <c r="H76" s="36" t="n">
         <v>0.2243</v>
       </c>
-      <c r="I76" s="21" t="n">
+      <c r="I76" s="35" t="n">
         <v>0.2667</v>
       </c>
-      <c r="J76" s="21" t="n">
+      <c r="J76" s="35" t="n">
         <v>0.1511</v>
       </c>
-      <c r="K76" s="21" t="n">
+      <c r="K76" s="35" t="n">
         <v>0.002</v>
       </c>
-      <c r="L76" s="21" t="n">
+      <c r="L76" s="36" t="n">
         <v>0.207</v>
       </c>
-      <c r="M76" s="21" t="n">
+      <c r="M76" s="35" t="n">
         <v>0.1739</v>
       </c>
-      <c r="N76" s="21" t="n">
+      <c r="N76" s="35" t="n">
         <v>0.0819</v>
       </c>
-      <c r="O76" s="21" t="n">
+      <c r="O76" s="35" t="n">
         <v>0.1612</v>
       </c>
-      <c r="P76" s="21" t="n">
+      <c r="P76" s="35" t="n">
         <v>0.0203</v>
       </c>
-      <c r="Q76" s="21" t="n">
+      <c r="Q76" s="35" t="n">
         <v>0.1376</v>
       </c>
-      <c r="R76" s="21" t="n">
+      <c r="R76" s="35" t="n">
         <v>0.1361</v>
       </c>
-      <c r="S76" s="21" t="n">
+      <c r="S76" s="35" t="n">
         <v>0.1434</v>
       </c>
-      <c r="T76" s="21" t="n">
+      <c r="T76" s="35" t="n">
         <v>0.004</v>
       </c>
-      <c r="U76" s="19" t="n">
+      <c r="U76" s="32" t="n">
         <v>0.0602</v>
       </c>
-      <c r="V76" s="19" t="n">
+      <c r="V76" s="33" t="n">
         <v>0.2178</v>
       </c>
-      <c r="W76" s="19" t="n">
+      <c r="W76" s="32" t="n">
         <v>0.171</v>
       </c>
-      <c r="X76" s="19" t="n">
+      <c r="X76" s="32" t="n">
         <v>0.1668</v>
       </c>
-      <c r="Y76" s="19" t="n">
+      <c r="Y76" s="32" t="n">
         <v>0.0247</v>
       </c>
-      <c r="AC76" s="19"/>
-    </row>
-    <row r="77" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC76" s="32"/>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C77" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D77" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="E77" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H77" s="2" t="s">
+      <c r="F77" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="M77" s="2" t="s">
+      <c r="I77" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="M77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="N77" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="P77" s="2" t="s">
+      <c r="N77" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="O77" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="P77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="Q77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="R77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="S77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="T77" s="2" t="s">
-        <v>481</v>
+      <c r="T77" s="13" t="s">
+        <v>482</v>
       </c>
       <c r="U77" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="V77" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="W77" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="X77" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y77" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7490,10 +7568,10 @@
       <c r="F78" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G78" s="1" t="n">
+      <c r="G78" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I78" s="1" t="n">
@@ -7505,7 +7583,7 @@
       <c r="K78" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L78" s="1" t="n">
+      <c r="L78" s="2" t="n">
         <v>10</v>
       </c>
       <c r="M78" s="1" t="n">
@@ -7535,7 +7613,7 @@
       <c r="U78" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="V78" s="0" t="n">
+      <c r="V78" s="3" t="n">
         <v>10</v>
       </c>
       <c r="W78" s="0" t="n">
@@ -7549,135 +7627,136 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="L79" s="1" t="s">
+      <c r="G79" s="2" t="s">
         <v>483</v>
       </c>
+      <c r="L79" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="N79" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="Y79" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="80" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
+      <c r="Y79" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-    </row>
-    <row r="81" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="80" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="V80" s="12"/>
+    </row>
+    <row r="81" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="13" t="n">
         <v>361</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="13" t="n">
         <v>2462</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="13" t="n">
         <v>37</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="13" t="n">
         <v>643</v>
       </c>
-      <c r="G81" s="2" t="n">
+      <c r="G81" s="4" t="n">
         <v>1896</v>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="4" t="n">
         <v>1109</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="J81" s="2" t="n">
+      <c r="J81" s="13" t="n">
         <v>327</v>
       </c>
-      <c r="K81" s="2" t="n">
+      <c r="K81" s="13" t="n">
         <v>331</v>
       </c>
-      <c r="L81" s="2" t="n">
+      <c r="L81" s="4" t="n">
         <v>891</v>
       </c>
-      <c r="M81" s="2" t="n">
+      <c r="M81" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="N81" s="2" t="n">
+      <c r="N81" s="13" t="n">
         <v>62</v>
       </c>
-      <c r="O81" s="2" t="n">
+      <c r="O81" s="13" t="n">
         <v>343</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="13" t="n">
         <v>229</v>
       </c>
-      <c r="Q81" s="2" t="n">
+      <c r="Q81" s="13" t="n">
         <v>175</v>
       </c>
-      <c r="R81" s="2" t="n">
+      <c r="R81" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="S81" s="2" t="n">
+      <c r="S81" s="13" t="n">
         <v>101</v>
       </c>
-      <c r="T81" s="2" t="n">
+      <c r="T81" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="U81" s="16" t="n">
+      <c r="U81" s="26" t="n">
         <v>542</v>
       </c>
-      <c r="V81" s="16" t="n">
+      <c r="V81" s="27" t="n">
         <v>1395</v>
       </c>
-      <c r="W81" s="16" t="n">
+      <c r="W81" s="26" t="n">
         <v>5394</v>
       </c>
-      <c r="X81" s="16" t="n">
+      <c r="X81" s="26" t="n">
         <v>1113</v>
       </c>
-      <c r="Y81" s="16" t="n">
+      <c r="Y81" s="26" t="n">
         <v>134</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>220</v>
@@ -7694,10 +7773,10 @@
       <c r="F82" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="G82" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>199</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -7709,7 +7788,7 @@
       <c r="K82" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M82" s="1" t="s">
@@ -7739,7 +7818,7 @@
       <c r="U82" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V82" s="0" t="s">
+      <c r="V82" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W82" s="0" t="s">
@@ -7757,7 +7836,7 @@
         <v>276</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>5</v>
@@ -7771,10 +7850,10 @@
       <c r="F83" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G83" s="1" t="n">
+      <c r="G83" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H83" s="1" t="n">
+      <c r="H83" s="2" t="n">
         <v>8</v>
       </c>
       <c r="I83" s="1" t="n">
@@ -7786,7 +7865,7 @@
       <c r="K83" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L83" s="1" t="n">
+      <c r="L83" s="2" t="n">
         <v>6</v>
       </c>
       <c r="M83" s="1" t="n">
@@ -7816,7 +7895,7 @@
       <c r="U83" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V83" s="0" t="n">
+      <c r="V83" s="3" t="n">
         <v>10</v>
       </c>
       <c r="W83" s="0" t="n">
@@ -7830,120 +7909,121 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-    </row>
-    <row r="85" s="7" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" s="11" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="V85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T86" s="2" t="s">
+      <c r="C86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="T86" s="13" t="s">
         <v>218</v>
       </c>
       <c r="U86" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V86" s="0" t="s">
+      <c r="V86" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W86" s="0" t="s">
@@ -7958,10 +8038,10 @@
     </row>
     <row r="87" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>199</v>
@@ -7975,10 +8055,10 @@
       <c r="F87" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="G87" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>199</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -7987,10 +8067,10 @@
       <c r="J87" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K87" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="L87" s="1" t="s">
+      <c r="K87" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="L87" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M87" s="1" t="s">
@@ -8020,14 +8100,14 @@
       <c r="U87" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V87" s="0" t="s">
+      <c r="V87" s="3" t="s">
         <v>199</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="X87" s="2" t="s">
-        <v>498</v>
+      <c r="X87" s="13" t="s">
+        <v>499</v>
       </c>
       <c r="Y87" s="0" t="s">
         <v>199</v>
@@ -8035,69 +8115,69 @@
     </row>
     <row r="88" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="R88" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="S88" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="T88" s="2" t="s">
+      <c r="C88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R88" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="T88" s="13" t="s">
         <v>218</v>
       </c>
       <c r="U88" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V88" s="0" t="s">
+      <c r="V88" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W88" s="0" t="s">
@@ -8111,147 +8191,147 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="C89" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="D89" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="E89" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J89" s="2" t="s">
+      <c r="F89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="H89" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J89" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="K89" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N89" s="2" t="s">
+      <c r="L89" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="O89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S89" s="2" t="s">
+      <c r="M89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N89" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="T89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="U89" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="V89" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="W89" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="X89" s="16" t="s">
+      <c r="O89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="P89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S89" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="Y89" s="16" t="s">
+      <c r="T89" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="U89" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="V89" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="W89" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="X89" s="26" t="s">
         <v>514</v>
+      </c>
+      <c r="Y89" s="26" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T90" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S90" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="T90" s="13" t="s">
         <v>218</v>
       </c>
       <c r="U90" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V90" s="0" t="s">
+      <c r="V90" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W90" s="0" t="s">
@@ -8266,76 +8346,76 @@
     </row>
     <row r="91" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P91" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O91" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P91" s="13" t="s">
         <v>218</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="U91" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V91" s="0" t="s">
-        <v>517</v>
+      <c r="V91" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>218</v>
       </c>
       <c r="X91" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y91" s="0" t="s">
         <v>218</v>
@@ -8343,146 +8423,146 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>519</v>
+        <v>501</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P92" s="13" t="s">
+        <v>520</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T92" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="R92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S92" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="T92" s="13" t="s">
         <v>218</v>
       </c>
       <c r="U92" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="V92" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="W92" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="X92" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Y92" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="S93" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T93" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="P93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S93" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="T93" s="13" t="s">
         <v>218</v>
       </c>
       <c r="U93" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="V93" s="0" t="s">
+      <c r="V93" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W93" s="0" t="s">
@@ -8500,7 +8580,7 @@
         <v>276</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>9</v>
@@ -8514,10 +8594,10 @@
       <c r="F94" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G94" s="1" t="n">
+      <c r="G94" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H94" s="1" t="n">
+      <c r="H94" s="2" t="n">
         <v>7</v>
       </c>
       <c r="I94" s="1" t="n">
@@ -8529,7 +8609,7 @@
       <c r="K94" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L94" s="1" t="n">
+      <c r="L94" s="2" t="n">
         <v>7</v>
       </c>
       <c r="M94" s="1" t="n">
@@ -8559,7 +8639,7 @@
       <c r="U94" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="V94" s="0" t="n">
+      <c r="V94" s="3" t="n">
         <v>6</v>
       </c>
       <c r="W94" s="0" t="n">
@@ -8573,117 +8653,118 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="R95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>524</v>
       </c>
+      <c r="R95" s="13" t="s">
+        <v>525</v>
+      </c>
       <c r="S95" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="96" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
+    </row>
+    <row r="96" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="V96" s="12"/>
     </row>
     <row r="97" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L97" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="M97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T97" s="2" t="s">
+      <c r="C97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="P97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S97" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T97" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U97" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V97" s="0" t="s">
+      <c r="V97" s="3" t="s">
         <v>199</v>
       </c>
       <c r="W97" s="0" t="s">
@@ -8698,70 +8779,70 @@
     </row>
     <row r="98" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="C98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K98" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="L98" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O98" s="8" t="s">
+      <c r="L98" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="P98" s="8" t="s">
+      <c r="M98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O98" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="Q98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T98" s="2" t="s">
+      <c r="P98" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S98" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T98" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U98" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="V98" s="0" t="s">
         <v>536</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>199</v>
@@ -8775,76 +8856,76 @@
     </row>
     <row r="99" customFormat="false" ht="27.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="I99" s="2" t="s">
+      <c r="C99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="M99" s="8" t="s">
+      <c r="I99" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="N99" s="8" t="s">
+      <c r="J99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M99" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="O99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R99" s="2" t="s">
+      <c r="N99" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="S99" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="T99" s="8" t="s">
+      <c r="O99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="P99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q99" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R99" s="13" t="s">
         <v>543</v>
       </c>
+      <c r="S99" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="T99" s="14" t="s">
+        <v>544</v>
+      </c>
       <c r="U99" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V99" s="0" t="s">
+      <c r="V99" s="3" t="s">
         <v>199</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>199</v>
       </c>
       <c r="X99" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Y99" s="0" t="s">
         <v>199</v>
@@ -8852,69 +8933,69 @@
     </row>
     <row r="100" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C100" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="G100" s="8" t="s">
+      <c r="E100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F100" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="G100" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K100" s="8" t="s">
+      <c r="I100" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="J100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K100" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="R100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="T100" s="2" t="s">
+      <c r="L100" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="P100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="R100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S100" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="T100" s="13" t="s">
         <v>199</v>
       </c>
       <c r="U100" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="V100" s="0" t="s">
+      <c r="V100" s="3" t="s">
         <v>218</v>
       </c>
       <c r="W100" s="0" t="s">
@@ -8946,10 +9027,10 @@
       <c r="F101" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G101" s="1" t="n">
+      <c r="G101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H101" s="1" t="n">
+      <c r="H101" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I101" s="1" t="n">
@@ -8961,7 +9042,7 @@
       <c r="K101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L101" s="1" t="n">
+      <c r="L101" s="2" t="n">
         <v>8</v>
       </c>
       <c r="M101" s="1" t="n">
@@ -8991,7 +9072,7 @@
       <c r="U101" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="V101" s="0" t="n">
+      <c r="V101" s="3" t="n">
         <v>5</v>
       </c>
       <c r="W101" s="0" t="n">
@@ -9005,124 +9086,125 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="37.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="8" t="s">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-    </row>
-    <row r="105" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6" t="s">
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="105" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="6"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="V105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="13" t="n">
         <v>2395</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="F106" s="2" t="n">
+      <c r="F106" s="13" t="n">
         <v>632</v>
       </c>
-      <c r="G106" s="2" t="n">
+      <c r="G106" s="4" t="n">
         <v>1829</v>
       </c>
-      <c r="H106" s="2" t="n">
+      <c r="H106" s="4" t="n">
         <v>1104</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="13" t="n">
         <v>307</v>
       </c>
-      <c r="J106" s="2" t="n">
+      <c r="J106" s="13" t="n">
         <v>324</v>
       </c>
-      <c r="K106" s="2" t="n">
+      <c r="K106" s="13" t="n">
         <v>312</v>
       </c>
-      <c r="L106" s="2" t="n">
+      <c r="L106" s="4" t="n">
         <v>859</v>
       </c>
-      <c r="M106" s="2" t="n">
+      <c r="M106" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="N106" s="2" t="n">
+      <c r="N106" s="13" t="n">
         <v>62</v>
       </c>
-      <c r="O106" s="2" t="n">
+      <c r="O106" s="13" t="n">
         <v>258</v>
       </c>
-      <c r="P106" s="2" t="n">
+      <c r="P106" s="13" t="n">
         <v>201</v>
       </c>
-      <c r="Q106" s="2" t="n">
+      <c r="Q106" s="13" t="n">
         <v>99</v>
       </c>
-      <c r="R106" s="2" t="n">
+      <c r="R106" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="S106" s="2" t="n">
+      <c r="S106" s="13" t="n">
         <v>82</v>
       </c>
-      <c r="T106" s="2" t="n">
+      <c r="T106" s="13" t="n">
         <v>41</v>
       </c>
       <c r="U106" s="0" t="n">
         <v>535</v>
       </c>
-      <c r="V106" s="0" t="n">
+      <c r="V106" s="3" t="n">
         <v>1309</v>
       </c>
       <c r="W106" s="0" t="n">
@@ -9137,69 +9219,69 @@
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="13" t="n">
         <v>67</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F107" s="2" t="n">
+      <c r="F107" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="G107" s="2" t="n">
+      <c r="G107" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="H107" s="2" t="n">
+      <c r="H107" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I107" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="J107" s="2" t="n">
+      <c r="J107" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K107" s="2" t="n">
+      <c r="K107" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="L107" s="2" t="n">
+      <c r="L107" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="M107" s="2" t="n">
+      <c r="M107" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="N107" s="2" t="n">
+      <c r="N107" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="O107" s="2" t="n">
+      <c r="O107" s="13" t="n">
         <v>85</v>
       </c>
-      <c r="P107" s="2" t="n">
+      <c r="P107" s="13" t="n">
         <v>28</v>
       </c>
-      <c r="Q107" s="2" t="n">
+      <c r="Q107" s="13" t="n">
         <v>76</v>
       </c>
-      <c r="R107" s="2" t="n">
+      <c r="R107" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="S107" s="2" t="n">
+      <c r="S107" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="T107" s="2" t="n">
+      <c r="T107" s="13" t="n">
         <v>0</v>
       </c>
       <c r="U107" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="V107" s="0" t="n">
+      <c r="V107" s="3" t="n">
         <v>86</v>
       </c>
       <c r="W107" s="0" t="n">
@@ -9214,69 +9296,69 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="13" t="n">
         <v>400010</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="13" t="n">
         <v>1276491</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="13" t="n">
         <v>8069</v>
       </c>
-      <c r="F108" s="2" t="n">
+      <c r="F108" s="13" t="n">
         <v>80961</v>
       </c>
-      <c r="G108" s="2" t="n">
+      <c r="G108" s="4" t="n">
         <v>553639</v>
       </c>
-      <c r="H108" s="2" t="n">
+      <c r="H108" s="4" t="n">
         <v>200366</v>
       </c>
-      <c r="I108" s="2" t="n">
+      <c r="I108" s="13" t="n">
         <v>43124</v>
       </c>
-      <c r="J108" s="2" t="n">
+      <c r="J108" s="13" t="n">
         <v>99661</v>
       </c>
-      <c r="K108" s="2" t="n">
+      <c r="K108" s="13" t="n">
         <v>5482242</v>
       </c>
-      <c r="L108" s="2" t="n">
+      <c r="L108" s="4" t="n">
         <v>667304</v>
       </c>
-      <c r="M108" s="2" t="n">
+      <c r="M108" s="13" t="n">
         <v>4873</v>
       </c>
-      <c r="N108" s="2" t="n">
+      <c r="N108" s="13" t="n">
         <v>5582</v>
       </c>
-      <c r="O108" s="2" t="n">
+      <c r="O108" s="13" t="n">
         <v>33278</v>
       </c>
-      <c r="P108" s="2" t="n">
+      <c r="P108" s="13" t="n">
         <v>46633</v>
       </c>
-      <c r="Q108" s="2" t="n">
+      <c r="Q108" s="13" t="n">
         <v>44956</v>
       </c>
-      <c r="R108" s="2" t="n">
+      <c r="R108" s="13" t="n">
         <v>12946</v>
       </c>
-      <c r="S108" s="2" t="n">
+      <c r="S108" s="13" t="n">
         <v>54755</v>
       </c>
-      <c r="T108" s="2" t="n">
+      <c r="T108" s="13" t="n">
         <v>42175</v>
       </c>
       <c r="U108" s="0" t="n">
         <v>81664</v>
       </c>
-      <c r="V108" s="0" t="n">
+      <c r="V108" s="3" t="n">
         <v>260985</v>
       </c>
       <c r="W108" s="0" t="n">
@@ -9291,69 +9373,69 @@
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D109" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="D109" s="13" t="n">
         <v>1573654</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F109" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="F109" s="13" t="n">
         <v>154310</v>
       </c>
-      <c r="G109" s="2" t="n">
+      <c r="G109" s="4" t="n">
         <v>727494</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I109" s="2" t="n">
+      <c r="H109" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I109" s="13" t="n">
         <v>192269</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="K109" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="K109" s="13" t="n">
         <v>10725979</v>
       </c>
-      <c r="L109" s="2" t="n">
+      <c r="L109" s="4" t="n">
         <v>2252783</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="N109" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="N109" s="13" t="n">
         <v>6322</v>
       </c>
-      <c r="O109" s="2" t="n">
+      <c r="O109" s="13" t="n">
         <v>267198</v>
       </c>
-      <c r="P109" s="2" t="n">
+      <c r="P109" s="13" t="n">
         <v>89081</v>
       </c>
-      <c r="Q109" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="R109" s="2" t="n">
+      <c r="Q109" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="R109" s="13" t="n">
         <v>16078</v>
       </c>
-      <c r="S109" s="2" t="n">
+      <c r="S109" s="13" t="n">
         <v>65842</v>
       </c>
-      <c r="T109" s="2" t="n">
+      <c r="T109" s="13" t="n">
         <v>166937</v>
       </c>
       <c r="U109" s="0" t="n">
         <v>204476</v>
       </c>
-      <c r="V109" s="0" t="n">
+      <c r="V109" s="3" t="n">
         <v>3269283</v>
       </c>
       <c r="W109" s="0" t="n">
@@ -9368,69 +9450,69 @@
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D110" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="D110" s="13" t="n">
         <v>297209</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F110" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="F110" s="13" t="n">
         <v>71872</v>
       </c>
-      <c r="G110" s="2" t="n">
+      <c r="G110" s="4" t="n">
         <v>173808</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I110" s="2" t="n">
+      <c r="H110" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I110" s="13" t="n">
         <v>149144</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="K110" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="K110" s="13" t="n">
         <v>5201357</v>
       </c>
-      <c r="L110" s="2" t="n">
+      <c r="L110" s="4" t="n">
         <v>1580570</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="N110" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="N110" s="13" t="n">
         <v>740</v>
       </c>
-      <c r="O110" s="2" t="n">
+      <c r="O110" s="13" t="n">
         <v>233630</v>
       </c>
-      <c r="P110" s="2" t="n">
+      <c r="P110" s="13" t="n">
         <v>42448</v>
       </c>
-      <c r="Q110" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="R110" s="2" t="n">
+      <c r="Q110" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="R110" s="13" t="n">
         <v>3132</v>
       </c>
-      <c r="S110" s="2" t="n">
+      <c r="S110" s="13" t="n">
         <v>11087</v>
       </c>
-      <c r="T110" s="2" t="n">
+      <c r="T110" s="13" t="n">
         <v>124711</v>
       </c>
       <c r="U110" s="0" t="n">
         <v>119447</v>
       </c>
-      <c r="V110" s="0" t="n">
+      <c r="V110" s="3" t="n">
         <v>2949680</v>
       </c>
       <c r="W110" s="0" t="n">
@@ -9445,69 +9527,69 @@
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D111" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="D111" s="13" t="n">
         <v>1314</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F111" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="F111" s="13" t="n">
         <v>1846</v>
       </c>
-      <c r="G111" s="2" t="n">
+      <c r="G111" s="4" t="n">
         <v>132</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I111" s="2" t="n">
+      <c r="H111" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I111" s="13" t="n">
         <v>11</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="K111" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="K111" s="13" t="n">
         <v>697</v>
       </c>
-      <c r="L111" s="2" t="n">
+      <c r="L111" s="4" t="n">
         <v>2059</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="N111" s="2" t="n">
+        <v>562</v>
+      </c>
+      <c r="N111" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="O111" s="2" t="n">
+      <c r="O111" s="13" t="n">
         <v>768</v>
       </c>
-      <c r="P111" s="2" t="n">
+      <c r="P111" s="13" t="n">
         <v>488</v>
       </c>
-      <c r="Q111" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="R111" s="2" t="n">
+      <c r="Q111" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="R111" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="S111" s="2" t="n">
+      <c r="S111" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="T111" s="2" t="n">
+      <c r="T111" s="13" t="n">
         <v>165</v>
       </c>
       <c r="U111" s="0" t="n">
         <v>1875</v>
       </c>
-      <c r="V111" s="0" t="n">
+      <c r="V111" s="3" t="n">
         <v>21091</v>
       </c>
       <c r="W111" s="0" t="n">
@@ -9522,148 +9604,148 @@
     </row>
     <row r="112" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>568</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G112" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F112" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I112" s="2" t="n">
+      <c r="G112" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I112" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="L112" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K112" s="13" t="s">
         <v>571</v>
       </c>
+      <c r="L112" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="M112" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O112" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="N112" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="P112" s="2" t="s">
+      <c r="O112" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="Q112" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="R112" s="2" t="n">
+      <c r="P112" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q112" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="R112" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="S112" s="2" t="n">
+      <c r="S112" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="T112" s="2" t="s">
-        <v>575</v>
+      <c r="T112" s="13" t="s">
+        <v>576</v>
       </c>
       <c r="U112" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="V112" s="0" t="s">
         <v>577</v>
       </c>
+      <c r="V112" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="W112" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="X112" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Y112" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>582</v>
+        <v>562</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>583</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="G113" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F113" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I113" s="2" t="n">
+      <c r="G113" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I113" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="L113" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="K113" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2" t="s">
+      <c r="L113" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="O113" s="2" t="s">
+      <c r="M113" s="13"/>
+      <c r="N113" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="P113" s="2" t="s">
+      <c r="O113" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="Q113" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="R113" s="2" t="n">
+      <c r="P113" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="R113" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="S113" s="2" t="n">
+      <c r="S113" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="T113" s="2" t="n">
+      <c r="T113" s="13" t="n">
         <v>0</v>
       </c>
       <c r="U113" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="V113" s="0" t="s">
         <v>591</v>
       </c>
+      <c r="V113" s="3" t="s">
+        <v>592</v>
+      </c>
       <c r="W113" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X113" s="0" t="n">
         <v>0</v>
@@ -9672,95 +9754,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
+    <row r="114" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="V114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="13" t="n">
         <v>172</v>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="13" t="n">
         <v>2286</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="F115" s="2" t="n">
+      <c r="F115" s="13" t="n">
         <v>353</v>
       </c>
-      <c r="G115" s="2" t="n">
+      <c r="G115" s="4" t="n">
         <v>1781</v>
       </c>
-      <c r="H115" s="2" t="n">
+      <c r="H115" s="4" t="n">
         <v>1112</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="I115" s="13" t="n">
         <v>307</v>
       </c>
-      <c r="J115" s="2" t="n">
+      <c r="J115" s="13" t="n">
         <v>276</v>
       </c>
-      <c r="K115" s="2" t="n">
+      <c r="K115" s="13" t="n">
         <v>147</v>
       </c>
-      <c r="L115" s="2" t="n">
+      <c r="L115" s="4" t="n">
         <v>415</v>
       </c>
-      <c r="M115" s="2" t="n">
+      <c r="M115" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="N115" s="2" t="n">
+      <c r="N115" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="O115" s="2" t="n">
+      <c r="O115" s="13" t="n">
         <v>243</v>
       </c>
-      <c r="P115" s="2" t="n">
+      <c r="P115" s="13" t="n">
         <v>196</v>
       </c>
-      <c r="Q115" s="2" t="n">
+      <c r="Q115" s="13" t="n">
         <v>59</v>
       </c>
-      <c r="R115" s="2" t="n">
+      <c r="R115" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="S115" s="2" t="n">
+      <c r="S115" s="13" t="n">
         <v>82</v>
       </c>
-      <c r="T115" s="2" t="n">
+      <c r="T115" s="13" t="n">
         <v>39</v>
       </c>
       <c r="U115" s="0" t="n">
         <v>413</v>
       </c>
-      <c r="V115" s="0" t="n">
+      <c r="V115" s="3" t="n">
         <v>1233</v>
       </c>
       <c r="W115" s="0" t="n">
@@ -9775,69 +9858,69 @@
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="13" t="n">
         <v>170223</v>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="13" t="n">
         <v>846146</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="13" t="n">
         <v>7646</v>
       </c>
-      <c r="F116" s="2" t="n">
+      <c r="F116" s="13" t="n">
         <v>69398</v>
       </c>
-      <c r="G116" s="2" t="n">
+      <c r="G116" s="4" t="n">
         <v>547623</v>
       </c>
-      <c r="H116" s="2" t="n">
+      <c r="H116" s="4" t="n">
         <v>209034</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I116" s="13" t="n">
         <v>43124</v>
       </c>
-      <c r="J116" s="2" t="n">
+      <c r="J116" s="13" t="n">
         <v>85543</v>
       </c>
-      <c r="K116" s="2" t="n">
+      <c r="K116" s="13" t="n">
         <v>4370670</v>
       </c>
-      <c r="L116" s="2" t="n">
+      <c r="L116" s="4" t="n">
         <v>109811</v>
       </c>
-      <c r="M116" s="2" t="n">
+      <c r="M116" s="13" t="n">
         <v>4872</v>
       </c>
-      <c r="N116" s="2" t="n">
+      <c r="N116" s="13" t="n">
         <v>5529</v>
       </c>
-      <c r="O116" s="2" t="n">
+      <c r="O116" s="13" t="n">
         <v>32314</v>
       </c>
-      <c r="P116" s="2" t="n">
+      <c r="P116" s="13" t="n">
         <v>46489</v>
       </c>
-      <c r="Q116" s="2" t="n">
+      <c r="Q116" s="13" t="n">
         <v>39766</v>
       </c>
-      <c r="R116" s="2" t="n">
+      <c r="R116" s="13" t="n">
         <v>12944</v>
       </c>
-      <c r="S116" s="2" t="n">
+      <c r="S116" s="13" t="n">
         <v>54755</v>
       </c>
-      <c r="T116" s="2" t="n">
+      <c r="T116" s="13" t="n">
         <v>42172</v>
       </c>
       <c r="U116" s="0" t="n">
         <v>43226</v>
       </c>
-      <c r="V116" s="0" t="n">
+      <c r="V116" s="3" t="n">
         <v>186700</v>
       </c>
       <c r="W116" s="0" t="n">
@@ -9852,69 +9935,69 @@
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="13" t="n">
         <v>133020</v>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="13" t="n">
         <v>545916</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="13" t="n">
         <v>5366</v>
       </c>
-      <c r="F117" s="2" t="n">
+      <c r="F117" s="13" t="n">
         <v>53607</v>
       </c>
-      <c r="G117" s="2" t="n">
+      <c r="G117" s="4" t="n">
         <v>378511</v>
       </c>
-      <c r="H117" s="2" t="n">
+      <c r="H117" s="4" t="n">
         <v>133762</v>
       </c>
-      <c r="I117" s="2" t="n">
+      <c r="I117" s="13" t="n">
         <v>25569</v>
       </c>
-      <c r="J117" s="2" t="n">
+      <c r="J117" s="13" t="n">
         <v>63786</v>
       </c>
-      <c r="K117" s="2" t="n">
+      <c r="K117" s="13" t="n">
         <v>4355669</v>
       </c>
-      <c r="L117" s="2" t="n">
+      <c r="L117" s="4" t="n">
         <v>63746</v>
       </c>
-      <c r="M117" s="2" t="n">
+      <c r="M117" s="13" t="n">
         <v>3533</v>
       </c>
-      <c r="N117" s="2" t="n">
+      <c r="N117" s="13" t="n">
         <v>4379</v>
       </c>
-      <c r="O117" s="2" t="n">
+      <c r="O117" s="13" t="n">
         <v>24722</v>
       </c>
-      <c r="P117" s="2" t="n">
+      <c r="P117" s="13" t="n">
         <v>43404</v>
       </c>
-      <c r="Q117" s="2" t="n">
+      <c r="Q117" s="13" t="n">
         <v>30045</v>
       </c>
-      <c r="R117" s="2" t="n">
+      <c r="R117" s="13" t="n">
         <v>9659</v>
       </c>
-      <c r="S117" s="2" t="n">
+      <c r="S117" s="13" t="n">
         <v>40566</v>
       </c>
-      <c r="T117" s="2" t="n">
+      <c r="T117" s="13" t="n">
         <v>41791</v>
       </c>
       <c r="U117" s="0" t="n">
         <v>35442</v>
       </c>
-      <c r="V117" s="0" t="n">
+      <c r="V117" s="3" t="n">
         <v>121862</v>
       </c>
       <c r="W117" s="0" t="n">
@@ -9929,69 +10012,69 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="13" t="n">
         <v>13724</v>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="13" t="n">
         <v>191372</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="13" t="n">
         <v>1351</v>
       </c>
-      <c r="F118" s="2" t="n">
+      <c r="F118" s="13" t="n">
         <v>6426</v>
       </c>
-      <c r="G118" s="2" t="n">
+      <c r="G118" s="4" t="n">
         <v>97251</v>
       </c>
-      <c r="H118" s="2" t="n">
+      <c r="H118" s="4" t="n">
         <v>46879</v>
       </c>
-      <c r="I118" s="2" t="n">
+      <c r="I118" s="13" t="n">
         <v>11501</v>
       </c>
-      <c r="J118" s="2" t="n">
+      <c r="J118" s="13" t="n">
         <v>12929</v>
       </c>
-      <c r="K118" s="2" t="n">
+      <c r="K118" s="13" t="n">
         <v>8848</v>
       </c>
-      <c r="L118" s="2" t="n">
+      <c r="L118" s="4" t="n">
         <v>22730</v>
       </c>
-      <c r="M118" s="2" t="n">
+      <c r="M118" s="13" t="n">
         <v>847</v>
       </c>
-      <c r="N118" s="2" t="n">
+      <c r="N118" s="13" t="n">
         <v>453</v>
       </c>
-      <c r="O118" s="2" t="n">
+      <c r="O118" s="13" t="n">
         <v>5209</v>
       </c>
-      <c r="P118" s="2" t="n">
+      <c r="P118" s="13" t="n">
         <v>943</v>
       </c>
-      <c r="Q118" s="2" t="n">
+      <c r="Q118" s="13" t="n">
         <v>5470</v>
       </c>
-      <c r="R118" s="2" t="n">
+      <c r="R118" s="13" t="n">
         <v>1762</v>
       </c>
-      <c r="S118" s="2" t="n">
+      <c r="S118" s="13" t="n">
         <v>7850</v>
       </c>
-      <c r="T118" s="2" t="n">
+      <c r="T118" s="13" t="n">
         <v>170</v>
       </c>
       <c r="U118" s="0" t="n">
         <v>2601</v>
       </c>
-      <c r="V118" s="0" t="n">
+      <c r="V118" s="3" t="n">
         <v>40670</v>
       </c>
       <c r="W118" s="0" t="n">
@@ -10006,69 +10089,69 @@
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="13" t="n">
         <v>23479</v>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="13" t="n">
         <v>108858</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="13" t="n">
         <v>929</v>
       </c>
-      <c r="F119" s="2" t="n">
+      <c r="F119" s="13" t="n">
         <v>9365</v>
       </c>
-      <c r="G119" s="2" t="n">
+      <c r="G119" s="4" t="n">
         <v>71861</v>
       </c>
-      <c r="H119" s="2" t="n">
+      <c r="H119" s="4" t="n">
         <v>28393</v>
       </c>
-      <c r="I119" s="2" t="n">
+      <c r="I119" s="13" t="n">
         <v>6054</v>
       </c>
-      <c r="J119" s="2" t="n">
+      <c r="J119" s="13" t="n">
         <v>8828</v>
       </c>
-      <c r="K119" s="2" t="n">
+      <c r="K119" s="13" t="n">
         <v>6153</v>
       </c>
-      <c r="L119" s="2" t="n">
+      <c r="L119" s="4" t="n">
         <v>23335</v>
       </c>
-      <c r="M119" s="2" t="n">
+      <c r="M119" s="13" t="n">
         <v>492</v>
       </c>
-      <c r="N119" s="2" t="n">
+      <c r="N119" s="13" t="n">
         <v>697</v>
       </c>
-      <c r="O119" s="2" t="n">
+      <c r="O119" s="13" t="n">
         <v>2383</v>
       </c>
-      <c r="P119" s="2" t="n">
+      <c r="P119" s="13" t="n">
         <v>2142</v>
       </c>
-      <c r="Q119" s="2" t="n">
+      <c r="Q119" s="13" t="n">
         <v>4251</v>
       </c>
-      <c r="R119" s="2" t="n">
+      <c r="R119" s="13" t="n">
         <v>1523</v>
       </c>
-      <c r="S119" s="2" t="n">
+      <c r="S119" s="13" t="n">
         <v>6339</v>
       </c>
-      <c r="T119" s="2" t="n">
+      <c r="T119" s="13" t="n">
         <v>211</v>
       </c>
       <c r="U119" s="0" t="n">
         <v>5183</v>
       </c>
-      <c r="V119" s="0" t="n">
+      <c r="V119" s="3" t="n">
         <v>24168</v>
       </c>
       <c r="W119" s="0" t="n">
@@ -10081,36 +10164,37 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="120" s="7" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
+    <row r="120" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="V120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>234</v>
@@ -10124,10 +10208,10 @@
       <c r="F121" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="G121" s="1" t="n">
+      <c r="G121" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H121" s="2" t="s">
         <v>234</v>
       </c>
       <c r="I121" s="1" t="n">
@@ -10139,7 +10223,7 @@
       <c r="K121" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="L121" s="1" t="n">
+      <c r="L121" s="2" t="n">
         <v>19</v>
       </c>
       <c r="M121" s="1" t="s">
@@ -10152,7 +10236,7 @@
         <v>57</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q121" s="1" t="s">
         <v>234</v>
@@ -10169,7 +10253,7 @@
       <c r="U121" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="V121" s="0" t="n">
+      <c r="V121" s="3" t="n">
         <v>115</v>
       </c>
       <c r="W121" s="0" t="n">
@@ -10184,10 +10268,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>234</v>
@@ -10201,10 +10285,10 @@
       <c r="F122" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H122" s="1" t="s">
+      <c r="G122" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>234</v>
       </c>
       <c r="I122" s="1" t="n">
@@ -10216,7 +10300,7 @@
       <c r="K122" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L122" s="1" t="n">
+      <c r="L122" s="2" t="n">
         <v>14</v>
       </c>
       <c r="M122" s="1" t="s">
@@ -10229,7 +10313,7 @@
         <v>28</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>234</v>
@@ -10246,7 +10330,7 @@
       <c r="U122" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="V122" s="0" t="n">
+      <c r="V122" s="3" t="n">
         <v>138</v>
       </c>
       <c r="W122" s="0" t="n">
@@ -10261,10 +10345,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>234</v>
@@ -10278,10 +10362,10 @@
       <c r="F123" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H123" s="1" t="s">
+      <c r="G123" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>234</v>
       </c>
       <c r="I123" s="1" t="n">
@@ -10293,7 +10377,7 @@
       <c r="K123" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L123" s="1" t="n">
+      <c r="L123" s="2" t="n">
         <v>6</v>
       </c>
       <c r="M123" s="1" t="s">
@@ -10306,7 +10390,7 @@
         <v>8</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q123" s="1" t="s">
         <v>234</v>
@@ -10323,7 +10407,7 @@
       <c r="U123" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="V123" s="0" t="n">
+      <c r="V123" s="3" t="n">
         <v>23</v>
       </c>
       <c r="W123" s="0" t="n">
@@ -10338,10 +10422,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>234</v>
@@ -10355,10 +10439,10 @@
       <c r="F124" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G124" s="1" t="n">
+      <c r="G124" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="2" t="s">
         <v>234</v>
       </c>
       <c r="I124" s="1" t="n">
@@ -10370,7 +10454,7 @@
       <c r="K124" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L124" s="1" t="n">
+      <c r="L124" s="2" t="n">
         <v>6</v>
       </c>
       <c r="M124" s="1" t="s">
@@ -10383,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q124" s="1" t="s">
         <v>234</v>
@@ -10400,7 +10484,7 @@
       <c r="U124" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="V124" s="0" t="n">
+      <c r="V124" s="3" t="n">
         <v>16</v>
       </c>
       <c r="W124" s="0" t="n">
@@ -10415,10 +10499,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>234</v>
@@ -10432,10 +10516,10 @@
       <c r="F125" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="G125" s="1" t="n">
+      <c r="G125" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="2" t="s">
         <v>234</v>
       </c>
       <c r="I125" s="1" t="n">
@@ -10447,7 +10531,7 @@
       <c r="K125" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="L125" s="1" t="n">
+      <c r="L125" s="2" t="n">
         <v>54</v>
       </c>
       <c r="M125" s="1" t="s">
@@ -10460,7 +10544,7 @@
         <v>110</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q125" s="1" t="s">
         <v>234</v>
@@ -10477,7 +10561,7 @@
       <c r="U125" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="V125" s="0" t="n">
+      <c r="V125" s="3" t="n">
         <v>2394</v>
       </c>
       <c r="W125" s="0" t="n">
@@ -10492,12 +10576,12 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P126" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
